--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AEAD3-93A2-47DD-9068-700BDED72AD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B64CE2-7423-487F-BFA4-E901C18BA74A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1950" windowWidth="28740" windowHeight="10830" tabRatio="865" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="865" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -50,35 +50,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DBDC6207-6061-4591-B3C3-B50BFAF86BF2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -110,174 +81,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{E9D5BE01-A54D-4FAE-8443-5861326B1A7F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「return button」は
-「back button」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{E5161C80-FE37-4A9E-9F7B-D7A272706C74}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{98B19DC7-9AB2-483B-96D2-88BD4124636C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{876183BC-8414-41E7-B439-0B64C5FC38FE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{454D2F0F-2DEB-4106-901F-339CB14B215F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{E8F50C5B-159E-443F-941D-70B76CD24826}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -288,35 +91,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E2A3B792-9CFC-4C3F-84D9-71C73AD3EC85}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -348,147 +122,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{B4D22941-B73F-483F-AED0-10E3C7DDE8EE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{EA2DA9D5-4721-4387-9B4A-07FA6FDF8008}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{E61E9CAA-2F36-470B-AF54-4593DBFB8956}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{BF9F0570-FEA9-44F2-9DD7-5FC30861B862}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{3EEE6D37-36A1-405B-AE35-F1584F3E5799}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「画面構成」は「Screen structure」としてください。
-他のセルについても同様に「structure」に置き換えてください。
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -499,35 +132,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{85793866-7832-421A-A252-271F3004BE22}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -559,118 +163,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{9F368F58-5DAB-41A3-8557-507638BEFEEA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{C78FE26B-87FC-4A10-9C22-E6BD83038F68}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{56D64DF5-B835-47F8-B7F5-249898C3945E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{9979F9C1-2E6F-4B86-AD4F-AA0257423AA4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「画面構成」は「Screen structure」としてください。
-他のセルについても同様に「structure」に置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -681,35 +173,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{41D9865B-C97A-4E20-9274-CE0264A5045A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
@@ -728,124 +191,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{F0A70EAB-EF92-4E75-BC3C-C4421BDF801F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Back event」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{5FA91863-2BE7-4963-82E9-AEE1EEC33049}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Return」を
-「Back」に
-置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{FEB40813-494C-4BC4-A96E-5AE15518E163}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{EC10AA5D-CF30-4355-AFF5-A467D478DCD1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="649">
   <si>
     <t>対象外</t>
   </si>
@@ -2204,9 +1555,6 @@
     <t>Screen unit</t>
   </si>
   <si>
-    <t>Screen configuration</t>
-  </si>
-  <si>
     <t>Configuration and arrangement of the entire screen</t>
   </si>
   <si>
@@ -2583,9 +1931,6 @@
     <t>Check all the input items.</t>
   </si>
   <si>
-    <t>A marker is displayed after the item name only for input items that are mandatory in the system function design document.</t>
-  </si>
-  <si>
     <t>Enter characters that are more than the domain of the system function design document for all the input items.</t>
   </si>
   <si>
@@ -2777,10 +2122,6 @@
     <t>Because there are no cache control requirements.</t>
   </si>
   <si>
-    <t>Screen configuration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Subfunction unit test specification</t>
   </si>
   <si>
@@ -2900,9 +2241,6 @@
     <t>A validation error occurs according to the domain of the system function design document.</t>
   </si>
   <si>
-    <t>A validation error should occur according to the mandatory items in the system function design document.</t>
-  </si>
-  <si>
     <t>Back event</t>
   </si>
   <si>
@@ -2923,6 +2261,12 @@
   <si>
     <t>Since duplicate form submission control is not required for the project registration screen display</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A validation error should occur according to the required items in the system function design document.</t>
+  </si>
+  <si>
+    <t>A marker is displayed after the item name only for input items that are required in the system function design document.</t>
   </si>
 </sst>
 </file>
@@ -2934,7 +2278,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -3049,21 +2393,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -10581,6 +9910,84 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10687,84 +10094,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12196,57 +11525,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="1090" t="s">
+      <c r="A1" s="1116" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="1091"/>
-      <c r="C1" s="1091"/>
-      <c r="D1" s="1092"/>
-      <c r="E1" s="1093" t="s">
+      <c r="B1" s="1117"/>
+      <c r="C1" s="1117"/>
+      <c r="D1" s="1118"/>
+      <c r="E1" s="1119" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="1094"/>
-      <c r="G1" s="1094"/>
-      <c r="H1" s="1094"/>
-      <c r="I1" s="1094"/>
-      <c r="J1" s="1094"/>
-      <c r="K1" s="1094"/>
-      <c r="L1" s="1094"/>
-      <c r="M1" s="1094"/>
-      <c r="N1" s="1095"/>
-      <c r="O1" s="1099" t="s">
+      <c r="F1" s="1120"/>
+      <c r="G1" s="1120"/>
+      <c r="H1" s="1120"/>
+      <c r="I1" s="1120"/>
+      <c r="J1" s="1120"/>
+      <c r="K1" s="1120"/>
+      <c r="L1" s="1120"/>
+      <c r="M1" s="1120"/>
+      <c r="N1" s="1121"/>
+      <c r="O1" s="1125" t="s">
         <v>284</v>
       </c>
-      <c r="P1" s="1100"/>
-      <c r="Q1" s="1100"/>
-      <c r="R1" s="1101"/>
-      <c r="S1" s="1108" t="s">
+      <c r="P1" s="1126"/>
+      <c r="Q1" s="1126"/>
+      <c r="R1" s="1127"/>
+      <c r="S1" s="1134" t="s">
         <v>285</v>
       </c>
-      <c r="T1" s="1109"/>
-      <c r="U1" s="1109"/>
-      <c r="V1" s="1109"/>
-      <c r="W1" s="1109"/>
-      <c r="X1" s="1109"/>
-      <c r="Y1" s="1109"/>
-      <c r="Z1" s="1110"/>
-      <c r="AA1" s="1090" t="s">
+      <c r="T1" s="1135"/>
+      <c r="U1" s="1135"/>
+      <c r="V1" s="1135"/>
+      <c r="W1" s="1135"/>
+      <c r="X1" s="1135"/>
+      <c r="Y1" s="1135"/>
+      <c r="Z1" s="1136"/>
+      <c r="AA1" s="1116" t="s">
         <v>286</v>
       </c>
-      <c r="AB1" s="1092"/>
-      <c r="AC1" s="1117" t="str">
+      <c r="AB1" s="1118"/>
+      <c r="AC1" s="1143" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="1118"/>
-      <c r="AE1" s="1118"/>
-      <c r="AF1" s="1119"/>
-      <c r="AG1" s="1084">
+      <c r="AD1" s="1144"/>
+      <c r="AE1" s="1144"/>
+      <c r="AF1" s="1145"/>
+      <c r="AG1" s="1110">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="1085"/>
-      <c r="AI1" s="1086"/>
+      <c r="AH1" s="1111"/>
+      <c r="AI1" s="1112"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12254,53 +11583,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="1090" t="s">
+      <c r="A2" s="1116" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="1091"/>
-      <c r="C2" s="1091"/>
-      <c r="D2" s="1092"/>
-      <c r="E2" s="1093" t="s">
+      <c r="B2" s="1117"/>
+      <c r="C2" s="1117"/>
+      <c r="D2" s="1118"/>
+      <c r="E2" s="1119" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="1094"/>
-      <c r="G2" s="1094"/>
-      <c r="H2" s="1094"/>
-      <c r="I2" s="1094"/>
-      <c r="J2" s="1094"/>
-      <c r="K2" s="1094"/>
-      <c r="L2" s="1094"/>
-      <c r="M2" s="1094"/>
-      <c r="N2" s="1095"/>
-      <c r="O2" s="1102"/>
-      <c r="P2" s="1103"/>
-      <c r="Q2" s="1103"/>
-      <c r="R2" s="1104"/>
-      <c r="S2" s="1111"/>
-      <c r="T2" s="1112"/>
-      <c r="U2" s="1112"/>
-      <c r="V2" s="1112"/>
-      <c r="W2" s="1112"/>
-      <c r="X2" s="1112"/>
-      <c r="Y2" s="1112"/>
-      <c r="Z2" s="1113"/>
-      <c r="AA2" s="1090" t="s">
+      <c r="F2" s="1120"/>
+      <c r="G2" s="1120"/>
+      <c r="H2" s="1120"/>
+      <c r="I2" s="1120"/>
+      <c r="J2" s="1120"/>
+      <c r="K2" s="1120"/>
+      <c r="L2" s="1120"/>
+      <c r="M2" s="1120"/>
+      <c r="N2" s="1121"/>
+      <c r="O2" s="1128"/>
+      <c r="P2" s="1129"/>
+      <c r="Q2" s="1129"/>
+      <c r="R2" s="1130"/>
+      <c r="S2" s="1137"/>
+      <c r="T2" s="1138"/>
+      <c r="U2" s="1138"/>
+      <c r="V2" s="1138"/>
+      <c r="W2" s="1138"/>
+      <c r="X2" s="1138"/>
+      <c r="Y2" s="1138"/>
+      <c r="Z2" s="1139"/>
+      <c r="AA2" s="1116" t="s">
         <v>289</v>
       </c>
-      <c r="AB2" s="1092"/>
-      <c r="AC2" s="1096" t="str">
+      <c r="AB2" s="1118"/>
+      <c r="AC2" s="1122" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="1097"/>
-      <c r="AE2" s="1097"/>
-      <c r="AF2" s="1098"/>
-      <c r="AG2" s="1084" t="str">
+      <c r="AD2" s="1123"/>
+      <c r="AE2" s="1123"/>
+      <c r="AF2" s="1124"/>
+      <c r="AG2" s="1110" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="1085"/>
-      <c r="AI2" s="1086"/>
+      <c r="AH2" s="1111"/>
+      <c r="AI2" s="1112"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12308,45 +11637,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="1090" t="s">
+      <c r="A3" s="1116" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="1091"/>
-      <c r="C3" s="1091"/>
-      <c r="D3" s="1092"/>
-      <c r="E3" s="1093" t="s">
+      <c r="B3" s="1117"/>
+      <c r="C3" s="1117"/>
+      <c r="D3" s="1118"/>
+      <c r="E3" s="1119" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="1094"/>
-      <c r="G3" s="1094"/>
-      <c r="H3" s="1094"/>
-      <c r="I3" s="1094"/>
-      <c r="J3" s="1094"/>
-      <c r="K3" s="1094"/>
-      <c r="L3" s="1094"/>
-      <c r="M3" s="1094"/>
-      <c r="N3" s="1095"/>
-      <c r="O3" s="1105"/>
-      <c r="P3" s="1106"/>
-      <c r="Q3" s="1106"/>
-      <c r="R3" s="1107"/>
-      <c r="S3" s="1114"/>
-      <c r="T3" s="1115"/>
-      <c r="U3" s="1115"/>
-      <c r="V3" s="1115"/>
-      <c r="W3" s="1115"/>
-      <c r="X3" s="1115"/>
-      <c r="Y3" s="1115"/>
-      <c r="Z3" s="1116"/>
-      <c r="AA3" s="1090"/>
-      <c r="AB3" s="1092"/>
-      <c r="AC3" s="1117"/>
-      <c r="AD3" s="1118"/>
-      <c r="AE3" s="1118"/>
-      <c r="AF3" s="1119"/>
-      <c r="AG3" s="1084"/>
-      <c r="AH3" s="1085"/>
-      <c r="AI3" s="1086"/>
+      <c r="F3" s="1120"/>
+      <c r="G3" s="1120"/>
+      <c r="H3" s="1120"/>
+      <c r="I3" s="1120"/>
+      <c r="J3" s="1120"/>
+      <c r="K3" s="1120"/>
+      <c r="L3" s="1120"/>
+      <c r="M3" s="1120"/>
+      <c r="N3" s="1121"/>
+      <c r="O3" s="1131"/>
+      <c r="P3" s="1132"/>
+      <c r="Q3" s="1132"/>
+      <c r="R3" s="1133"/>
+      <c r="S3" s="1140"/>
+      <c r="T3" s="1141"/>
+      <c r="U3" s="1141"/>
+      <c r="V3" s="1141"/>
+      <c r="W3" s="1141"/>
+      <c r="X3" s="1141"/>
+      <c r="Y3" s="1141"/>
+      <c r="Z3" s="1142"/>
+      <c r="AA3" s="1116"/>
+      <c r="AB3" s="1118"/>
+      <c r="AC3" s="1143"/>
+      <c r="AD3" s="1144"/>
+      <c r="AE3" s="1144"/>
+      <c r="AF3" s="1145"/>
+      <c r="AG3" s="1110"/>
+      <c r="AH3" s="1111"/>
+      <c r="AI3" s="1112"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12383,1190 +11712,1034 @@
       <c r="A7" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B7" s="1087" t="s">
+      <c r="B7" s="1113" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="1088"/>
-      <c r="D7" s="1087" t="s">
+      <c r="C7" s="1114"/>
+      <c r="D7" s="1113" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="1089"/>
-      <c r="F7" s="1088"/>
-      <c r="G7" s="1087" t="s">
+      <c r="E7" s="1115"/>
+      <c r="F7" s="1114"/>
+      <c r="G7" s="1113" t="s">
         <v>296</v>
       </c>
-      <c r="H7" s="1089"/>
-      <c r="I7" s="1088"/>
-      <c r="J7" s="1087" t="s">
+      <c r="H7" s="1115"/>
+      <c r="I7" s="1114"/>
+      <c r="J7" s="1113" t="s">
         <v>297</v>
       </c>
-      <c r="K7" s="1089"/>
-      <c r="L7" s="1089"/>
-      <c r="M7" s="1089"/>
-      <c r="N7" s="1089"/>
-      <c r="O7" s="1089"/>
-      <c r="P7" s="1088"/>
-      <c r="Q7" s="1087" t="s">
+      <c r="K7" s="1115"/>
+      <c r="L7" s="1115"/>
+      <c r="M7" s="1115"/>
+      <c r="N7" s="1115"/>
+      <c r="O7" s="1115"/>
+      <c r="P7" s="1114"/>
+      <c r="Q7" s="1113" t="s">
         <v>298</v>
       </c>
-      <c r="R7" s="1089"/>
-      <c r="S7" s="1089"/>
-      <c r="T7" s="1089"/>
-      <c r="U7" s="1089"/>
-      <c r="V7" s="1089"/>
-      <c r="W7" s="1089"/>
-      <c r="X7" s="1089"/>
-      <c r="Y7" s="1089"/>
-      <c r="Z7" s="1089"/>
-      <c r="AA7" s="1089"/>
-      <c r="AB7" s="1089"/>
-      <c r="AC7" s="1089"/>
-      <c r="AD7" s="1089"/>
-      <c r="AE7" s="1088"/>
-      <c r="AF7" s="1087" t="s">
+      <c r="R7" s="1115"/>
+      <c r="S7" s="1115"/>
+      <c r="T7" s="1115"/>
+      <c r="U7" s="1115"/>
+      <c r="V7" s="1115"/>
+      <c r="W7" s="1115"/>
+      <c r="X7" s="1115"/>
+      <c r="Y7" s="1115"/>
+      <c r="Z7" s="1115"/>
+      <c r="AA7" s="1115"/>
+      <c r="AB7" s="1115"/>
+      <c r="AC7" s="1115"/>
+      <c r="AD7" s="1115"/>
+      <c r="AE7" s="1114"/>
+      <c r="AF7" s="1113" t="s">
         <v>299</v>
       </c>
-      <c r="AG7" s="1089"/>
-      <c r="AH7" s="1089"/>
-      <c r="AI7" s="1088"/>
+      <c r="AG7" s="1115"/>
+      <c r="AH7" s="1115"/>
+      <c r="AI7" s="1114"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="1132" t="s">
+      <c r="B8" s="1097" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="1133"/>
-      <c r="D8" s="1134">
+      <c r="C8" s="1098"/>
+      <c r="D8" s="1099">
         <v>43657</v>
       </c>
-      <c r="E8" s="1135"/>
-      <c r="F8" s="1136"/>
-      <c r="G8" s="1137" t="s">
+      <c r="E8" s="1100"/>
+      <c r="F8" s="1101"/>
+      <c r="G8" s="1102" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="1138"/>
-      <c r="I8" s="1133"/>
-      <c r="J8" s="1139" t="s">
+      <c r="H8" s="1103"/>
+      <c r="I8" s="1098"/>
+      <c r="J8" s="1104" t="s">
         <v>302</v>
       </c>
-      <c r="K8" s="1140"/>
-      <c r="L8" s="1140"/>
-      <c r="M8" s="1140"/>
-      <c r="N8" s="1140"/>
-      <c r="O8" s="1140"/>
-      <c r="P8" s="1141"/>
-      <c r="Q8" s="1142" t="s">
+      <c r="K8" s="1105"/>
+      <c r="L8" s="1105"/>
+      <c r="M8" s="1105"/>
+      <c r="N8" s="1105"/>
+      <c r="O8" s="1105"/>
+      <c r="P8" s="1106"/>
+      <c r="Q8" s="1107" t="s">
         <v>303</v>
       </c>
-      <c r="R8" s="1143"/>
-      <c r="S8" s="1143"/>
-      <c r="T8" s="1143"/>
-      <c r="U8" s="1143"/>
-      <c r="V8" s="1143"/>
-      <c r="W8" s="1143"/>
-      <c r="X8" s="1143"/>
-      <c r="Y8" s="1143"/>
-      <c r="Z8" s="1143"/>
-      <c r="AA8" s="1143"/>
-      <c r="AB8" s="1143"/>
-      <c r="AC8" s="1143"/>
-      <c r="AD8" s="1143"/>
-      <c r="AE8" s="1144"/>
-      <c r="AF8" s="1139" t="s">
+      <c r="R8" s="1108"/>
+      <c r="S8" s="1108"/>
+      <c r="T8" s="1108"/>
+      <c r="U8" s="1108"/>
+      <c r="V8" s="1108"/>
+      <c r="W8" s="1108"/>
+      <c r="X8" s="1108"/>
+      <c r="Y8" s="1108"/>
+      <c r="Z8" s="1108"/>
+      <c r="AA8" s="1108"/>
+      <c r="AB8" s="1108"/>
+      <c r="AC8" s="1108"/>
+      <c r="AD8" s="1108"/>
+      <c r="AE8" s="1109"/>
+      <c r="AF8" s="1104" t="s">
         <v>304</v>
       </c>
-      <c r="AG8" s="1140"/>
-      <c r="AH8" s="1140"/>
-      <c r="AI8" s="1141"/>
+      <c r="AG8" s="1105"/>
+      <c r="AH8" s="1105"/>
+      <c r="AI8" s="1106"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="1120"/>
-      <c r="C9" s="1121"/>
-      <c r="D9" s="1122"/>
-      <c r="E9" s="1123"/>
-      <c r="F9" s="1124"/>
-      <c r="G9" s="1122"/>
-      <c r="H9" s="1125"/>
-      <c r="I9" s="1121"/>
-      <c r="J9" s="1126"/>
-      <c r="K9" s="1127"/>
-      <c r="L9" s="1127"/>
-      <c r="M9" s="1127"/>
-      <c r="N9" s="1127"/>
-      <c r="O9" s="1127"/>
-      <c r="P9" s="1128"/>
-      <c r="Q9" s="1129"/>
-      <c r="R9" s="1130"/>
-      <c r="S9" s="1130"/>
-      <c r="T9" s="1130"/>
-      <c r="U9" s="1130"/>
-      <c r="V9" s="1130"/>
-      <c r="W9" s="1130"/>
-      <c r="X9" s="1130"/>
-      <c r="Y9" s="1130"/>
-      <c r="Z9" s="1130"/>
-      <c r="AA9" s="1130"/>
-      <c r="AB9" s="1130"/>
-      <c r="AC9" s="1130"/>
-      <c r="AD9" s="1130"/>
-      <c r="AE9" s="1131"/>
-      <c r="AF9" s="1126"/>
-      <c r="AG9" s="1127"/>
-      <c r="AH9" s="1127"/>
-      <c r="AI9" s="1128"/>
+      <c r="B9" s="1084"/>
+      <c r="C9" s="1085"/>
+      <c r="D9" s="1086"/>
+      <c r="E9" s="1087"/>
+      <c r="F9" s="1088"/>
+      <c r="G9" s="1086"/>
+      <c r="H9" s="1089"/>
+      <c r="I9" s="1085"/>
+      <c r="J9" s="1090"/>
+      <c r="K9" s="1091"/>
+      <c r="L9" s="1091"/>
+      <c r="M9" s="1091"/>
+      <c r="N9" s="1091"/>
+      <c r="O9" s="1091"/>
+      <c r="P9" s="1092"/>
+      <c r="Q9" s="1093"/>
+      <c r="R9" s="1094"/>
+      <c r="S9" s="1094"/>
+      <c r="T9" s="1094"/>
+      <c r="U9" s="1094"/>
+      <c r="V9" s="1094"/>
+      <c r="W9" s="1094"/>
+      <c r="X9" s="1094"/>
+      <c r="Y9" s="1094"/>
+      <c r="Z9" s="1094"/>
+      <c r="AA9" s="1094"/>
+      <c r="AB9" s="1094"/>
+      <c r="AC9" s="1094"/>
+      <c r="AD9" s="1094"/>
+      <c r="AE9" s="1095"/>
+      <c r="AF9" s="1090"/>
+      <c r="AG9" s="1091"/>
+      <c r="AH9" s="1091"/>
+      <c r="AI9" s="1092"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="1120"/>
-      <c r="C10" s="1121"/>
-      <c r="D10" s="1122"/>
-      <c r="E10" s="1123"/>
-      <c r="F10" s="1124"/>
-      <c r="G10" s="1120"/>
-      <c r="H10" s="1125"/>
-      <c r="I10" s="1121"/>
-      <c r="J10" s="1126"/>
-      <c r="K10" s="1127"/>
-      <c r="L10" s="1127"/>
-      <c r="M10" s="1127"/>
-      <c r="N10" s="1127"/>
-      <c r="O10" s="1127"/>
-      <c r="P10" s="1128"/>
-      <c r="Q10" s="1129"/>
-      <c r="R10" s="1130"/>
-      <c r="S10" s="1130"/>
-      <c r="T10" s="1130"/>
-      <c r="U10" s="1130"/>
-      <c r="V10" s="1130"/>
-      <c r="W10" s="1130"/>
-      <c r="X10" s="1130"/>
-      <c r="Y10" s="1130"/>
-      <c r="Z10" s="1130"/>
-      <c r="AA10" s="1130"/>
-      <c r="AB10" s="1130"/>
-      <c r="AC10" s="1130"/>
-      <c r="AD10" s="1130"/>
-      <c r="AE10" s="1131"/>
-      <c r="AF10" s="1126"/>
-      <c r="AG10" s="1127"/>
-      <c r="AH10" s="1127"/>
-      <c r="AI10" s="1128"/>
+      <c r="B10" s="1084"/>
+      <c r="C10" s="1085"/>
+      <c r="D10" s="1086"/>
+      <c r="E10" s="1087"/>
+      <c r="F10" s="1088"/>
+      <c r="G10" s="1084"/>
+      <c r="H10" s="1089"/>
+      <c r="I10" s="1085"/>
+      <c r="J10" s="1090"/>
+      <c r="K10" s="1091"/>
+      <c r="L10" s="1091"/>
+      <c r="M10" s="1091"/>
+      <c r="N10" s="1091"/>
+      <c r="O10" s="1091"/>
+      <c r="P10" s="1092"/>
+      <c r="Q10" s="1093"/>
+      <c r="R10" s="1094"/>
+      <c r="S10" s="1094"/>
+      <c r="T10" s="1094"/>
+      <c r="U10" s="1094"/>
+      <c r="V10" s="1094"/>
+      <c r="W10" s="1094"/>
+      <c r="X10" s="1094"/>
+      <c r="Y10" s="1094"/>
+      <c r="Z10" s="1094"/>
+      <c r="AA10" s="1094"/>
+      <c r="AB10" s="1094"/>
+      <c r="AC10" s="1094"/>
+      <c r="AD10" s="1094"/>
+      <c r="AE10" s="1095"/>
+      <c r="AF10" s="1090"/>
+      <c r="AG10" s="1091"/>
+      <c r="AH10" s="1091"/>
+      <c r="AI10" s="1092"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="1120"/>
-      <c r="C11" s="1121"/>
-      <c r="D11" s="1122"/>
-      <c r="E11" s="1123"/>
-      <c r="F11" s="1124"/>
-      <c r="G11" s="1120"/>
-      <c r="H11" s="1125"/>
-      <c r="I11" s="1121"/>
-      <c r="J11" s="1126"/>
-      <c r="K11" s="1127"/>
-      <c r="L11" s="1127"/>
-      <c r="M11" s="1127"/>
-      <c r="N11" s="1127"/>
-      <c r="O11" s="1127"/>
-      <c r="P11" s="1128"/>
-      <c r="Q11" s="1129"/>
-      <c r="R11" s="1130"/>
-      <c r="S11" s="1130"/>
-      <c r="T11" s="1130"/>
-      <c r="U11" s="1130"/>
-      <c r="V11" s="1130"/>
-      <c r="W11" s="1130"/>
-      <c r="X11" s="1130"/>
-      <c r="Y11" s="1130"/>
-      <c r="Z11" s="1130"/>
-      <c r="AA11" s="1130"/>
-      <c r="AB11" s="1130"/>
-      <c r="AC11" s="1130"/>
-      <c r="AD11" s="1130"/>
-      <c r="AE11" s="1131"/>
-      <c r="AF11" s="1126"/>
-      <c r="AG11" s="1127"/>
-      <c r="AH11" s="1127"/>
-      <c r="AI11" s="1128"/>
+      <c r="B11" s="1084"/>
+      <c r="C11" s="1085"/>
+      <c r="D11" s="1086"/>
+      <c r="E11" s="1087"/>
+      <c r="F11" s="1088"/>
+      <c r="G11" s="1084"/>
+      <c r="H11" s="1089"/>
+      <c r="I11" s="1085"/>
+      <c r="J11" s="1090"/>
+      <c r="K11" s="1091"/>
+      <c r="L11" s="1091"/>
+      <c r="M11" s="1091"/>
+      <c r="N11" s="1091"/>
+      <c r="O11" s="1091"/>
+      <c r="P11" s="1092"/>
+      <c r="Q11" s="1093"/>
+      <c r="R11" s="1094"/>
+      <c r="S11" s="1094"/>
+      <c r="T11" s="1094"/>
+      <c r="U11" s="1094"/>
+      <c r="V11" s="1094"/>
+      <c r="W11" s="1094"/>
+      <c r="X11" s="1094"/>
+      <c r="Y11" s="1094"/>
+      <c r="Z11" s="1094"/>
+      <c r="AA11" s="1094"/>
+      <c r="AB11" s="1094"/>
+      <c r="AC11" s="1094"/>
+      <c r="AD11" s="1094"/>
+      <c r="AE11" s="1095"/>
+      <c r="AF11" s="1090"/>
+      <c r="AG11" s="1091"/>
+      <c r="AH11" s="1091"/>
+      <c r="AI11" s="1092"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="1120"/>
-      <c r="C12" s="1121"/>
-      <c r="D12" s="1122"/>
-      <c r="E12" s="1123"/>
-      <c r="F12" s="1124"/>
-      <c r="G12" s="1120"/>
-      <c r="H12" s="1125"/>
-      <c r="I12" s="1121"/>
-      <c r="J12" s="1126"/>
-      <c r="K12" s="1127"/>
-      <c r="L12" s="1127"/>
-      <c r="M12" s="1127"/>
-      <c r="N12" s="1127"/>
-      <c r="O12" s="1127"/>
-      <c r="P12" s="1128"/>
-      <c r="Q12" s="1129"/>
-      <c r="R12" s="1130"/>
-      <c r="S12" s="1130"/>
-      <c r="T12" s="1130"/>
-      <c r="U12" s="1130"/>
-      <c r="V12" s="1130"/>
-      <c r="W12" s="1130"/>
-      <c r="X12" s="1130"/>
-      <c r="Y12" s="1130"/>
-      <c r="Z12" s="1130"/>
-      <c r="AA12" s="1130"/>
-      <c r="AB12" s="1130"/>
-      <c r="AC12" s="1130"/>
-      <c r="AD12" s="1130"/>
-      <c r="AE12" s="1131"/>
-      <c r="AF12" s="1126"/>
-      <c r="AG12" s="1127"/>
-      <c r="AH12" s="1127"/>
-      <c r="AI12" s="1128"/>
+      <c r="B12" s="1084"/>
+      <c r="C12" s="1085"/>
+      <c r="D12" s="1086"/>
+      <c r="E12" s="1087"/>
+      <c r="F12" s="1088"/>
+      <c r="G12" s="1084"/>
+      <c r="H12" s="1089"/>
+      <c r="I12" s="1085"/>
+      <c r="J12" s="1090"/>
+      <c r="K12" s="1091"/>
+      <c r="L12" s="1091"/>
+      <c r="M12" s="1091"/>
+      <c r="N12" s="1091"/>
+      <c r="O12" s="1091"/>
+      <c r="P12" s="1092"/>
+      <c r="Q12" s="1093"/>
+      <c r="R12" s="1094"/>
+      <c r="S12" s="1094"/>
+      <c r="T12" s="1094"/>
+      <c r="U12" s="1094"/>
+      <c r="V12" s="1094"/>
+      <c r="W12" s="1094"/>
+      <c r="X12" s="1094"/>
+      <c r="Y12" s="1094"/>
+      <c r="Z12" s="1094"/>
+      <c r="AA12" s="1094"/>
+      <c r="AB12" s="1094"/>
+      <c r="AC12" s="1094"/>
+      <c r="AD12" s="1094"/>
+      <c r="AE12" s="1095"/>
+      <c r="AF12" s="1090"/>
+      <c r="AG12" s="1091"/>
+      <c r="AH12" s="1091"/>
+      <c r="AI12" s="1092"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="1120"/>
-      <c r="C13" s="1121"/>
-      <c r="D13" s="1122"/>
-      <c r="E13" s="1123"/>
-      <c r="F13" s="1124"/>
-      <c r="G13" s="1120"/>
-      <c r="H13" s="1125"/>
-      <c r="I13" s="1121"/>
-      <c r="J13" s="1126"/>
-      <c r="K13" s="1127"/>
-      <c r="L13" s="1127"/>
-      <c r="M13" s="1127"/>
-      <c r="N13" s="1127"/>
-      <c r="O13" s="1127"/>
-      <c r="P13" s="1128"/>
-      <c r="Q13" s="1129"/>
-      <c r="R13" s="1130"/>
-      <c r="S13" s="1130"/>
-      <c r="T13" s="1130"/>
-      <c r="U13" s="1130"/>
-      <c r="V13" s="1130"/>
-      <c r="W13" s="1130"/>
-      <c r="X13" s="1130"/>
-      <c r="Y13" s="1130"/>
-      <c r="Z13" s="1130"/>
-      <c r="AA13" s="1130"/>
-      <c r="AB13" s="1130"/>
-      <c r="AC13" s="1130"/>
-      <c r="AD13" s="1130"/>
-      <c r="AE13" s="1131"/>
-      <c r="AF13" s="1126"/>
-      <c r="AG13" s="1127"/>
-      <c r="AH13" s="1127"/>
-      <c r="AI13" s="1128"/>
+      <c r="B13" s="1084"/>
+      <c r="C13" s="1085"/>
+      <c r="D13" s="1086"/>
+      <c r="E13" s="1087"/>
+      <c r="F13" s="1088"/>
+      <c r="G13" s="1084"/>
+      <c r="H13" s="1089"/>
+      <c r="I13" s="1085"/>
+      <c r="J13" s="1090"/>
+      <c r="K13" s="1091"/>
+      <c r="L13" s="1091"/>
+      <c r="M13" s="1091"/>
+      <c r="N13" s="1091"/>
+      <c r="O13" s="1091"/>
+      <c r="P13" s="1092"/>
+      <c r="Q13" s="1093"/>
+      <c r="R13" s="1094"/>
+      <c r="S13" s="1094"/>
+      <c r="T13" s="1094"/>
+      <c r="U13" s="1094"/>
+      <c r="V13" s="1094"/>
+      <c r="W13" s="1094"/>
+      <c r="X13" s="1094"/>
+      <c r="Y13" s="1094"/>
+      <c r="Z13" s="1094"/>
+      <c r="AA13" s="1094"/>
+      <c r="AB13" s="1094"/>
+      <c r="AC13" s="1094"/>
+      <c r="AD13" s="1094"/>
+      <c r="AE13" s="1095"/>
+      <c r="AF13" s="1090"/>
+      <c r="AG13" s="1091"/>
+      <c r="AH13" s="1091"/>
+      <c r="AI13" s="1092"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="1120"/>
-      <c r="C14" s="1121"/>
-      <c r="D14" s="1122"/>
-      <c r="E14" s="1123"/>
-      <c r="F14" s="1124"/>
-      <c r="G14" s="1120"/>
-      <c r="H14" s="1125"/>
-      <c r="I14" s="1121"/>
-      <c r="J14" s="1126"/>
-      <c r="K14" s="1127"/>
-      <c r="L14" s="1127"/>
-      <c r="M14" s="1127"/>
-      <c r="N14" s="1127"/>
-      <c r="O14" s="1127"/>
-      <c r="P14" s="1128"/>
-      <c r="Q14" s="1129"/>
-      <c r="R14" s="1130"/>
-      <c r="S14" s="1130"/>
-      <c r="T14" s="1130"/>
-      <c r="U14" s="1130"/>
-      <c r="V14" s="1130"/>
-      <c r="W14" s="1130"/>
-      <c r="X14" s="1130"/>
-      <c r="Y14" s="1130"/>
-      <c r="Z14" s="1130"/>
-      <c r="AA14" s="1130"/>
-      <c r="AB14" s="1130"/>
-      <c r="AC14" s="1130"/>
-      <c r="AD14" s="1130"/>
-      <c r="AE14" s="1131"/>
-      <c r="AF14" s="1126"/>
-      <c r="AG14" s="1127"/>
-      <c r="AH14" s="1127"/>
-      <c r="AI14" s="1128"/>
+      <c r="B14" s="1084"/>
+      <c r="C14" s="1085"/>
+      <c r="D14" s="1086"/>
+      <c r="E14" s="1087"/>
+      <c r="F14" s="1088"/>
+      <c r="G14" s="1084"/>
+      <c r="H14" s="1089"/>
+      <c r="I14" s="1085"/>
+      <c r="J14" s="1090"/>
+      <c r="K14" s="1091"/>
+      <c r="L14" s="1091"/>
+      <c r="M14" s="1091"/>
+      <c r="N14" s="1091"/>
+      <c r="O14" s="1091"/>
+      <c r="P14" s="1092"/>
+      <c r="Q14" s="1093"/>
+      <c r="R14" s="1094"/>
+      <c r="S14" s="1094"/>
+      <c r="T14" s="1094"/>
+      <c r="U14" s="1094"/>
+      <c r="V14" s="1094"/>
+      <c r="W14" s="1094"/>
+      <c r="X14" s="1094"/>
+      <c r="Y14" s="1094"/>
+      <c r="Z14" s="1094"/>
+      <c r="AA14" s="1094"/>
+      <c r="AB14" s="1094"/>
+      <c r="AC14" s="1094"/>
+      <c r="AD14" s="1094"/>
+      <c r="AE14" s="1095"/>
+      <c r="AF14" s="1090"/>
+      <c r="AG14" s="1091"/>
+      <c r="AH14" s="1091"/>
+      <c r="AI14" s="1092"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="1120"/>
-      <c r="C15" s="1121"/>
-      <c r="D15" s="1122"/>
-      <c r="E15" s="1123"/>
-      <c r="F15" s="1124"/>
-      <c r="G15" s="1120"/>
-      <c r="H15" s="1125"/>
-      <c r="I15" s="1121"/>
-      <c r="J15" s="1126"/>
-      <c r="K15" s="1127"/>
-      <c r="L15" s="1127"/>
-      <c r="M15" s="1127"/>
-      <c r="N15" s="1127"/>
-      <c r="O15" s="1127"/>
-      <c r="P15" s="1128"/>
-      <c r="Q15" s="1129"/>
-      <c r="R15" s="1130"/>
-      <c r="S15" s="1130"/>
-      <c r="T15" s="1130"/>
-      <c r="U15" s="1130"/>
-      <c r="V15" s="1130"/>
-      <c r="W15" s="1130"/>
-      <c r="X15" s="1130"/>
-      <c r="Y15" s="1130"/>
-      <c r="Z15" s="1130"/>
-      <c r="AA15" s="1130"/>
-      <c r="AB15" s="1130"/>
-      <c r="AC15" s="1130"/>
-      <c r="AD15" s="1130"/>
-      <c r="AE15" s="1131"/>
-      <c r="AF15" s="1126"/>
-      <c r="AG15" s="1127"/>
-      <c r="AH15" s="1127"/>
-      <c r="AI15" s="1128"/>
+      <c r="B15" s="1084"/>
+      <c r="C15" s="1085"/>
+      <c r="D15" s="1086"/>
+      <c r="E15" s="1087"/>
+      <c r="F15" s="1088"/>
+      <c r="G15" s="1084"/>
+      <c r="H15" s="1089"/>
+      <c r="I15" s="1085"/>
+      <c r="J15" s="1090"/>
+      <c r="K15" s="1091"/>
+      <c r="L15" s="1091"/>
+      <c r="M15" s="1091"/>
+      <c r="N15" s="1091"/>
+      <c r="O15" s="1091"/>
+      <c r="P15" s="1092"/>
+      <c r="Q15" s="1093"/>
+      <c r="R15" s="1094"/>
+      <c r="S15" s="1094"/>
+      <c r="T15" s="1094"/>
+      <c r="U15" s="1094"/>
+      <c r="V15" s="1094"/>
+      <c r="W15" s="1094"/>
+      <c r="X15" s="1094"/>
+      <c r="Y15" s="1094"/>
+      <c r="Z15" s="1094"/>
+      <c r="AA15" s="1094"/>
+      <c r="AB15" s="1094"/>
+      <c r="AC15" s="1094"/>
+      <c r="AD15" s="1094"/>
+      <c r="AE15" s="1095"/>
+      <c r="AF15" s="1090"/>
+      <c r="AG15" s="1091"/>
+      <c r="AH15" s="1091"/>
+      <c r="AI15" s="1092"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="1120"/>
-      <c r="C16" s="1121"/>
-      <c r="D16" s="1122"/>
-      <c r="E16" s="1123"/>
-      <c r="F16" s="1124"/>
-      <c r="G16" s="1120"/>
-      <c r="H16" s="1125"/>
-      <c r="I16" s="1121"/>
-      <c r="J16" s="1126"/>
-      <c r="K16" s="1127"/>
-      <c r="L16" s="1127"/>
-      <c r="M16" s="1127"/>
-      <c r="N16" s="1127"/>
-      <c r="O16" s="1127"/>
-      <c r="P16" s="1128"/>
-      <c r="Q16" s="1129"/>
-      <c r="R16" s="1130"/>
-      <c r="S16" s="1130"/>
-      <c r="T16" s="1130"/>
-      <c r="U16" s="1130"/>
-      <c r="V16" s="1130"/>
-      <c r="W16" s="1130"/>
-      <c r="X16" s="1130"/>
-      <c r="Y16" s="1130"/>
-      <c r="Z16" s="1130"/>
-      <c r="AA16" s="1130"/>
-      <c r="AB16" s="1130"/>
-      <c r="AC16" s="1130"/>
-      <c r="AD16" s="1130"/>
-      <c r="AE16" s="1131"/>
-      <c r="AF16" s="1126"/>
-      <c r="AG16" s="1127"/>
-      <c r="AH16" s="1127"/>
-      <c r="AI16" s="1128"/>
+      <c r="B16" s="1084"/>
+      <c r="C16" s="1085"/>
+      <c r="D16" s="1086"/>
+      <c r="E16" s="1087"/>
+      <c r="F16" s="1088"/>
+      <c r="G16" s="1084"/>
+      <c r="H16" s="1089"/>
+      <c r="I16" s="1085"/>
+      <c r="J16" s="1090"/>
+      <c r="K16" s="1091"/>
+      <c r="L16" s="1091"/>
+      <c r="M16" s="1091"/>
+      <c r="N16" s="1091"/>
+      <c r="O16" s="1091"/>
+      <c r="P16" s="1092"/>
+      <c r="Q16" s="1093"/>
+      <c r="R16" s="1094"/>
+      <c r="S16" s="1094"/>
+      <c r="T16" s="1094"/>
+      <c r="U16" s="1094"/>
+      <c r="V16" s="1094"/>
+      <c r="W16" s="1094"/>
+      <c r="X16" s="1094"/>
+      <c r="Y16" s="1094"/>
+      <c r="Z16" s="1094"/>
+      <c r="AA16" s="1094"/>
+      <c r="AB16" s="1094"/>
+      <c r="AC16" s="1094"/>
+      <c r="AD16" s="1094"/>
+      <c r="AE16" s="1095"/>
+      <c r="AF16" s="1090"/>
+      <c r="AG16" s="1091"/>
+      <c r="AH16" s="1091"/>
+      <c r="AI16" s="1092"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="1120"/>
-      <c r="C17" s="1121"/>
-      <c r="D17" s="1122"/>
-      <c r="E17" s="1123"/>
-      <c r="F17" s="1124"/>
-      <c r="G17" s="1120"/>
-      <c r="H17" s="1125"/>
-      <c r="I17" s="1121"/>
-      <c r="J17" s="1126"/>
-      <c r="K17" s="1127"/>
-      <c r="L17" s="1127"/>
-      <c r="M17" s="1127"/>
-      <c r="N17" s="1127"/>
-      <c r="O17" s="1127"/>
-      <c r="P17" s="1128"/>
-      <c r="Q17" s="1129"/>
-      <c r="R17" s="1130"/>
-      <c r="S17" s="1130"/>
-      <c r="T17" s="1130"/>
-      <c r="U17" s="1130"/>
-      <c r="V17" s="1130"/>
-      <c r="W17" s="1130"/>
-      <c r="X17" s="1130"/>
-      <c r="Y17" s="1130"/>
-      <c r="Z17" s="1130"/>
-      <c r="AA17" s="1130"/>
-      <c r="AB17" s="1130"/>
-      <c r="AC17" s="1130"/>
-      <c r="AD17" s="1130"/>
-      <c r="AE17" s="1131"/>
-      <c r="AF17" s="1126"/>
-      <c r="AG17" s="1127"/>
-      <c r="AH17" s="1127"/>
-      <c r="AI17" s="1128"/>
+      <c r="B17" s="1084"/>
+      <c r="C17" s="1085"/>
+      <c r="D17" s="1086"/>
+      <c r="E17" s="1087"/>
+      <c r="F17" s="1088"/>
+      <c r="G17" s="1084"/>
+      <c r="H17" s="1089"/>
+      <c r="I17" s="1085"/>
+      <c r="J17" s="1090"/>
+      <c r="K17" s="1091"/>
+      <c r="L17" s="1091"/>
+      <c r="M17" s="1091"/>
+      <c r="N17" s="1091"/>
+      <c r="O17" s="1091"/>
+      <c r="P17" s="1092"/>
+      <c r="Q17" s="1093"/>
+      <c r="R17" s="1094"/>
+      <c r="S17" s="1094"/>
+      <c r="T17" s="1094"/>
+      <c r="U17" s="1094"/>
+      <c r="V17" s="1094"/>
+      <c r="W17" s="1094"/>
+      <c r="X17" s="1094"/>
+      <c r="Y17" s="1094"/>
+      <c r="Z17" s="1094"/>
+      <c r="AA17" s="1094"/>
+      <c r="AB17" s="1094"/>
+      <c r="AC17" s="1094"/>
+      <c r="AD17" s="1094"/>
+      <c r="AE17" s="1095"/>
+      <c r="AF17" s="1090"/>
+      <c r="AG17" s="1091"/>
+      <c r="AH17" s="1091"/>
+      <c r="AI17" s="1092"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="1120"/>
-      <c r="C18" s="1121"/>
-      <c r="D18" s="1122"/>
-      <c r="E18" s="1123"/>
-      <c r="F18" s="1124"/>
-      <c r="G18" s="1120"/>
-      <c r="H18" s="1125"/>
-      <c r="I18" s="1121"/>
-      <c r="J18" s="1126"/>
-      <c r="K18" s="1127"/>
-      <c r="L18" s="1127"/>
-      <c r="M18" s="1127"/>
-      <c r="N18" s="1127"/>
-      <c r="O18" s="1127"/>
-      <c r="P18" s="1128"/>
-      <c r="Q18" s="1129"/>
-      <c r="R18" s="1130"/>
-      <c r="S18" s="1130"/>
-      <c r="T18" s="1130"/>
-      <c r="U18" s="1130"/>
-      <c r="V18" s="1130"/>
-      <c r="W18" s="1130"/>
-      <c r="X18" s="1130"/>
-      <c r="Y18" s="1130"/>
-      <c r="Z18" s="1130"/>
-      <c r="AA18" s="1130"/>
-      <c r="AB18" s="1130"/>
-      <c r="AC18" s="1130"/>
-      <c r="AD18" s="1130"/>
-      <c r="AE18" s="1131"/>
-      <c r="AF18" s="1126"/>
-      <c r="AG18" s="1127"/>
-      <c r="AH18" s="1127"/>
-      <c r="AI18" s="1128"/>
+      <c r="B18" s="1084"/>
+      <c r="C18" s="1085"/>
+      <c r="D18" s="1086"/>
+      <c r="E18" s="1087"/>
+      <c r="F18" s="1088"/>
+      <c r="G18" s="1084"/>
+      <c r="H18" s="1089"/>
+      <c r="I18" s="1085"/>
+      <c r="J18" s="1090"/>
+      <c r="K18" s="1091"/>
+      <c r="L18" s="1091"/>
+      <c r="M18" s="1091"/>
+      <c r="N18" s="1091"/>
+      <c r="O18" s="1091"/>
+      <c r="P18" s="1092"/>
+      <c r="Q18" s="1093"/>
+      <c r="R18" s="1094"/>
+      <c r="S18" s="1094"/>
+      <c r="T18" s="1094"/>
+      <c r="U18" s="1094"/>
+      <c r="V18" s="1094"/>
+      <c r="W18" s="1094"/>
+      <c r="X18" s="1094"/>
+      <c r="Y18" s="1094"/>
+      <c r="Z18" s="1094"/>
+      <c r="AA18" s="1094"/>
+      <c r="AB18" s="1094"/>
+      <c r="AC18" s="1094"/>
+      <c r="AD18" s="1094"/>
+      <c r="AE18" s="1095"/>
+      <c r="AF18" s="1090"/>
+      <c r="AG18" s="1091"/>
+      <c r="AH18" s="1091"/>
+      <c r="AI18" s="1092"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="1120"/>
-      <c r="C19" s="1121"/>
-      <c r="D19" s="1122"/>
-      <c r="E19" s="1123"/>
-      <c r="F19" s="1124"/>
-      <c r="G19" s="1120"/>
-      <c r="H19" s="1125"/>
-      <c r="I19" s="1121"/>
-      <c r="J19" s="1126"/>
-      <c r="K19" s="1127"/>
-      <c r="L19" s="1127"/>
-      <c r="M19" s="1127"/>
-      <c r="N19" s="1127"/>
-      <c r="O19" s="1127"/>
-      <c r="P19" s="1128"/>
-      <c r="Q19" s="1129"/>
-      <c r="R19" s="1130"/>
-      <c r="S19" s="1130"/>
-      <c r="T19" s="1130"/>
-      <c r="U19" s="1130"/>
-      <c r="V19" s="1130"/>
-      <c r="W19" s="1130"/>
-      <c r="X19" s="1130"/>
-      <c r="Y19" s="1130"/>
-      <c r="Z19" s="1130"/>
-      <c r="AA19" s="1130"/>
-      <c r="AB19" s="1130"/>
-      <c r="AC19" s="1130"/>
-      <c r="AD19" s="1130"/>
-      <c r="AE19" s="1131"/>
-      <c r="AF19" s="1126"/>
-      <c r="AG19" s="1127"/>
-      <c r="AH19" s="1127"/>
-      <c r="AI19" s="1128"/>
+      <c r="B19" s="1084"/>
+      <c r="C19" s="1085"/>
+      <c r="D19" s="1086"/>
+      <c r="E19" s="1087"/>
+      <c r="F19" s="1088"/>
+      <c r="G19" s="1084"/>
+      <c r="H19" s="1089"/>
+      <c r="I19" s="1085"/>
+      <c r="J19" s="1090"/>
+      <c r="K19" s="1091"/>
+      <c r="L19" s="1091"/>
+      <c r="M19" s="1091"/>
+      <c r="N19" s="1091"/>
+      <c r="O19" s="1091"/>
+      <c r="P19" s="1092"/>
+      <c r="Q19" s="1093"/>
+      <c r="R19" s="1094"/>
+      <c r="S19" s="1094"/>
+      <c r="T19" s="1094"/>
+      <c r="U19" s="1094"/>
+      <c r="V19" s="1094"/>
+      <c r="W19" s="1094"/>
+      <c r="X19" s="1094"/>
+      <c r="Y19" s="1094"/>
+      <c r="Z19" s="1094"/>
+      <c r="AA19" s="1094"/>
+      <c r="AB19" s="1094"/>
+      <c r="AC19" s="1094"/>
+      <c r="AD19" s="1094"/>
+      <c r="AE19" s="1095"/>
+      <c r="AF19" s="1090"/>
+      <c r="AG19" s="1091"/>
+      <c r="AH19" s="1091"/>
+      <c r="AI19" s="1092"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="1120"/>
-      <c r="C20" s="1121"/>
-      <c r="D20" s="1122"/>
-      <c r="E20" s="1123"/>
-      <c r="F20" s="1124"/>
-      <c r="G20" s="1120"/>
-      <c r="H20" s="1125"/>
-      <c r="I20" s="1121"/>
-      <c r="J20" s="1126"/>
-      <c r="K20" s="1127"/>
-      <c r="L20" s="1127"/>
-      <c r="M20" s="1127"/>
-      <c r="N20" s="1127"/>
-      <c r="O20" s="1127"/>
-      <c r="P20" s="1128"/>
-      <c r="Q20" s="1129"/>
-      <c r="R20" s="1130"/>
-      <c r="S20" s="1130"/>
-      <c r="T20" s="1130"/>
-      <c r="U20" s="1130"/>
-      <c r="V20" s="1130"/>
-      <c r="W20" s="1130"/>
-      <c r="X20" s="1130"/>
-      <c r="Y20" s="1130"/>
-      <c r="Z20" s="1130"/>
-      <c r="AA20" s="1130"/>
-      <c r="AB20" s="1130"/>
-      <c r="AC20" s="1130"/>
-      <c r="AD20" s="1130"/>
-      <c r="AE20" s="1131"/>
-      <c r="AF20" s="1126"/>
-      <c r="AG20" s="1127"/>
-      <c r="AH20" s="1127"/>
-      <c r="AI20" s="1128"/>
+      <c r="B20" s="1084"/>
+      <c r="C20" s="1085"/>
+      <c r="D20" s="1086"/>
+      <c r="E20" s="1087"/>
+      <c r="F20" s="1088"/>
+      <c r="G20" s="1084"/>
+      <c r="H20" s="1089"/>
+      <c r="I20" s="1085"/>
+      <c r="J20" s="1090"/>
+      <c r="K20" s="1091"/>
+      <c r="L20" s="1091"/>
+      <c r="M20" s="1091"/>
+      <c r="N20" s="1091"/>
+      <c r="O20" s="1091"/>
+      <c r="P20" s="1092"/>
+      <c r="Q20" s="1093"/>
+      <c r="R20" s="1094"/>
+      <c r="S20" s="1094"/>
+      <c r="T20" s="1094"/>
+      <c r="U20" s="1094"/>
+      <c r="V20" s="1094"/>
+      <c r="W20" s="1094"/>
+      <c r="X20" s="1094"/>
+      <c r="Y20" s="1094"/>
+      <c r="Z20" s="1094"/>
+      <c r="AA20" s="1094"/>
+      <c r="AB20" s="1094"/>
+      <c r="AC20" s="1094"/>
+      <c r="AD20" s="1094"/>
+      <c r="AE20" s="1095"/>
+      <c r="AF20" s="1090"/>
+      <c r="AG20" s="1091"/>
+      <c r="AH20" s="1091"/>
+      <c r="AI20" s="1092"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="1120"/>
-      <c r="C21" s="1121"/>
-      <c r="D21" s="1122"/>
-      <c r="E21" s="1123"/>
-      <c r="F21" s="1124"/>
-      <c r="G21" s="1120"/>
-      <c r="H21" s="1125"/>
-      <c r="I21" s="1121"/>
-      <c r="J21" s="1126"/>
-      <c r="K21" s="1127"/>
-      <c r="L21" s="1127"/>
-      <c r="M21" s="1127"/>
-      <c r="N21" s="1127"/>
-      <c r="O21" s="1127"/>
-      <c r="P21" s="1128"/>
-      <c r="Q21" s="1129"/>
-      <c r="R21" s="1130"/>
-      <c r="S21" s="1130"/>
-      <c r="T21" s="1130"/>
-      <c r="U21" s="1130"/>
-      <c r="V21" s="1130"/>
-      <c r="W21" s="1130"/>
-      <c r="X21" s="1130"/>
-      <c r="Y21" s="1130"/>
-      <c r="Z21" s="1130"/>
-      <c r="AA21" s="1130"/>
-      <c r="AB21" s="1130"/>
-      <c r="AC21" s="1130"/>
-      <c r="AD21" s="1130"/>
-      <c r="AE21" s="1131"/>
-      <c r="AF21" s="1126"/>
-      <c r="AG21" s="1127"/>
-      <c r="AH21" s="1127"/>
-      <c r="AI21" s="1128"/>
+      <c r="B21" s="1084"/>
+      <c r="C21" s="1085"/>
+      <c r="D21" s="1086"/>
+      <c r="E21" s="1087"/>
+      <c r="F21" s="1088"/>
+      <c r="G21" s="1084"/>
+      <c r="H21" s="1089"/>
+      <c r="I21" s="1085"/>
+      <c r="J21" s="1090"/>
+      <c r="K21" s="1091"/>
+      <c r="L21" s="1091"/>
+      <c r="M21" s="1091"/>
+      <c r="N21" s="1091"/>
+      <c r="O21" s="1091"/>
+      <c r="P21" s="1092"/>
+      <c r="Q21" s="1093"/>
+      <c r="R21" s="1094"/>
+      <c r="S21" s="1094"/>
+      <c r="T21" s="1094"/>
+      <c r="U21" s="1094"/>
+      <c r="V21" s="1094"/>
+      <c r="W21" s="1094"/>
+      <c r="X21" s="1094"/>
+      <c r="Y21" s="1094"/>
+      <c r="Z21" s="1094"/>
+      <c r="AA21" s="1094"/>
+      <c r="AB21" s="1094"/>
+      <c r="AC21" s="1094"/>
+      <c r="AD21" s="1094"/>
+      <c r="AE21" s="1095"/>
+      <c r="AF21" s="1090"/>
+      <c r="AG21" s="1091"/>
+      <c r="AH21" s="1091"/>
+      <c r="AI21" s="1092"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="1120"/>
-      <c r="C22" s="1121"/>
-      <c r="D22" s="1122"/>
-      <c r="E22" s="1123"/>
-      <c r="F22" s="1124"/>
-      <c r="G22" s="1120"/>
-      <c r="H22" s="1125"/>
-      <c r="I22" s="1121"/>
-      <c r="J22" s="1126"/>
-      <c r="K22" s="1127"/>
-      <c r="L22" s="1127"/>
-      <c r="M22" s="1127"/>
-      <c r="N22" s="1127"/>
-      <c r="O22" s="1127"/>
-      <c r="P22" s="1128"/>
-      <c r="Q22" s="1129"/>
-      <c r="R22" s="1130"/>
-      <c r="S22" s="1130"/>
-      <c r="T22" s="1130"/>
-      <c r="U22" s="1130"/>
-      <c r="V22" s="1130"/>
-      <c r="W22" s="1130"/>
-      <c r="X22" s="1130"/>
-      <c r="Y22" s="1130"/>
-      <c r="Z22" s="1130"/>
-      <c r="AA22" s="1130"/>
-      <c r="AB22" s="1130"/>
-      <c r="AC22" s="1130"/>
-      <c r="AD22" s="1130"/>
-      <c r="AE22" s="1131"/>
-      <c r="AF22" s="1126"/>
-      <c r="AG22" s="1127"/>
-      <c r="AH22" s="1127"/>
-      <c r="AI22" s="1128"/>
+      <c r="B22" s="1084"/>
+      <c r="C22" s="1085"/>
+      <c r="D22" s="1086"/>
+      <c r="E22" s="1087"/>
+      <c r="F22" s="1088"/>
+      <c r="G22" s="1084"/>
+      <c r="H22" s="1089"/>
+      <c r="I22" s="1085"/>
+      <c r="J22" s="1090"/>
+      <c r="K22" s="1091"/>
+      <c r="L22" s="1091"/>
+      <c r="M22" s="1091"/>
+      <c r="N22" s="1091"/>
+      <c r="O22" s="1091"/>
+      <c r="P22" s="1092"/>
+      <c r="Q22" s="1093"/>
+      <c r="R22" s="1094"/>
+      <c r="S22" s="1094"/>
+      <c r="T22" s="1094"/>
+      <c r="U22" s="1094"/>
+      <c r="V22" s="1094"/>
+      <c r="W22" s="1094"/>
+      <c r="X22" s="1094"/>
+      <c r="Y22" s="1094"/>
+      <c r="Z22" s="1094"/>
+      <c r="AA22" s="1094"/>
+      <c r="AB22" s="1094"/>
+      <c r="AC22" s="1094"/>
+      <c r="AD22" s="1094"/>
+      <c r="AE22" s="1095"/>
+      <c r="AF22" s="1090"/>
+      <c r="AG22" s="1091"/>
+      <c r="AH22" s="1091"/>
+      <c r="AI22" s="1092"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="1120"/>
-      <c r="C23" s="1121"/>
-      <c r="D23" s="1122"/>
-      <c r="E23" s="1123"/>
-      <c r="F23" s="1124"/>
-      <c r="G23" s="1120"/>
-      <c r="H23" s="1125"/>
-      <c r="I23" s="1121"/>
-      <c r="J23" s="1126"/>
-      <c r="K23" s="1127"/>
-      <c r="L23" s="1127"/>
-      <c r="M23" s="1127"/>
-      <c r="N23" s="1127"/>
-      <c r="O23" s="1127"/>
-      <c r="P23" s="1128"/>
-      <c r="Q23" s="1129"/>
-      <c r="R23" s="1130"/>
-      <c r="S23" s="1130"/>
-      <c r="T23" s="1130"/>
-      <c r="U23" s="1130"/>
-      <c r="V23" s="1130"/>
-      <c r="W23" s="1130"/>
-      <c r="X23" s="1130"/>
-      <c r="Y23" s="1130"/>
-      <c r="Z23" s="1130"/>
-      <c r="AA23" s="1130"/>
-      <c r="AB23" s="1130"/>
-      <c r="AC23" s="1130"/>
-      <c r="AD23" s="1130"/>
-      <c r="AE23" s="1131"/>
-      <c r="AF23" s="1126"/>
-      <c r="AG23" s="1127"/>
-      <c r="AH23" s="1127"/>
-      <c r="AI23" s="1128"/>
+      <c r="B23" s="1084"/>
+      <c r="C23" s="1085"/>
+      <c r="D23" s="1086"/>
+      <c r="E23" s="1087"/>
+      <c r="F23" s="1088"/>
+      <c r="G23" s="1084"/>
+      <c r="H23" s="1089"/>
+      <c r="I23" s="1085"/>
+      <c r="J23" s="1090"/>
+      <c r="K23" s="1091"/>
+      <c r="L23" s="1091"/>
+      <c r="M23" s="1091"/>
+      <c r="N23" s="1091"/>
+      <c r="O23" s="1091"/>
+      <c r="P23" s="1092"/>
+      <c r="Q23" s="1093"/>
+      <c r="R23" s="1094"/>
+      <c r="S23" s="1094"/>
+      <c r="T23" s="1094"/>
+      <c r="U23" s="1094"/>
+      <c r="V23" s="1094"/>
+      <c r="W23" s="1094"/>
+      <c r="X23" s="1094"/>
+      <c r="Y23" s="1094"/>
+      <c r="Z23" s="1094"/>
+      <c r="AA23" s="1094"/>
+      <c r="AB23" s="1094"/>
+      <c r="AC23" s="1094"/>
+      <c r="AD23" s="1094"/>
+      <c r="AE23" s="1095"/>
+      <c r="AF23" s="1090"/>
+      <c r="AG23" s="1091"/>
+      <c r="AH23" s="1091"/>
+      <c r="AI23" s="1092"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="1120"/>
-      <c r="C24" s="1121"/>
-      <c r="D24" s="1122"/>
-      <c r="E24" s="1123"/>
-      <c r="F24" s="1124"/>
-      <c r="G24" s="1120"/>
-      <c r="H24" s="1125"/>
-      <c r="I24" s="1121"/>
-      <c r="J24" s="1126"/>
-      <c r="K24" s="1127"/>
-      <c r="L24" s="1127"/>
-      <c r="M24" s="1127"/>
-      <c r="N24" s="1127"/>
-      <c r="O24" s="1127"/>
-      <c r="P24" s="1128"/>
-      <c r="Q24" s="1129"/>
-      <c r="R24" s="1130"/>
-      <c r="S24" s="1130"/>
-      <c r="T24" s="1130"/>
-      <c r="U24" s="1130"/>
-      <c r="V24" s="1130"/>
-      <c r="W24" s="1130"/>
-      <c r="X24" s="1130"/>
-      <c r="Y24" s="1130"/>
-      <c r="Z24" s="1130"/>
-      <c r="AA24" s="1130"/>
-      <c r="AB24" s="1130"/>
-      <c r="AC24" s="1130"/>
-      <c r="AD24" s="1130"/>
-      <c r="AE24" s="1131"/>
-      <c r="AF24" s="1126"/>
-      <c r="AG24" s="1127"/>
-      <c r="AH24" s="1127"/>
-      <c r="AI24" s="1128"/>
+      <c r="B24" s="1084"/>
+      <c r="C24" s="1085"/>
+      <c r="D24" s="1086"/>
+      <c r="E24" s="1087"/>
+      <c r="F24" s="1088"/>
+      <c r="G24" s="1084"/>
+      <c r="H24" s="1089"/>
+      <c r="I24" s="1085"/>
+      <c r="J24" s="1090"/>
+      <c r="K24" s="1091"/>
+      <c r="L24" s="1091"/>
+      <c r="M24" s="1091"/>
+      <c r="N24" s="1091"/>
+      <c r="O24" s="1091"/>
+      <c r="P24" s="1092"/>
+      <c r="Q24" s="1093"/>
+      <c r="R24" s="1094"/>
+      <c r="S24" s="1094"/>
+      <c r="T24" s="1094"/>
+      <c r="U24" s="1094"/>
+      <c r="V24" s="1094"/>
+      <c r="W24" s="1094"/>
+      <c r="X24" s="1094"/>
+      <c r="Y24" s="1094"/>
+      <c r="Z24" s="1094"/>
+      <c r="AA24" s="1094"/>
+      <c r="AB24" s="1094"/>
+      <c r="AC24" s="1094"/>
+      <c r="AD24" s="1094"/>
+      <c r="AE24" s="1095"/>
+      <c r="AF24" s="1090"/>
+      <c r="AG24" s="1091"/>
+      <c r="AH24" s="1091"/>
+      <c r="AI24" s="1092"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="1120"/>
-      <c r="C25" s="1121"/>
-      <c r="D25" s="1122"/>
-      <c r="E25" s="1123"/>
-      <c r="F25" s="1124"/>
-      <c r="G25" s="1120"/>
-      <c r="H25" s="1125"/>
-      <c r="I25" s="1121"/>
-      <c r="J25" s="1126"/>
-      <c r="K25" s="1127"/>
-      <c r="L25" s="1127"/>
-      <c r="M25" s="1127"/>
-      <c r="N25" s="1127"/>
-      <c r="O25" s="1127"/>
-      <c r="P25" s="1128"/>
-      <c r="Q25" s="1129"/>
-      <c r="R25" s="1130"/>
-      <c r="S25" s="1130"/>
-      <c r="T25" s="1130"/>
-      <c r="U25" s="1130"/>
-      <c r="V25" s="1130"/>
-      <c r="W25" s="1130"/>
-      <c r="X25" s="1130"/>
-      <c r="Y25" s="1130"/>
-      <c r="Z25" s="1130"/>
-      <c r="AA25" s="1130"/>
-      <c r="AB25" s="1130"/>
-      <c r="AC25" s="1130"/>
-      <c r="AD25" s="1130"/>
-      <c r="AE25" s="1131"/>
-      <c r="AF25" s="1126"/>
-      <c r="AG25" s="1127"/>
-      <c r="AH25" s="1127"/>
-      <c r="AI25" s="1128"/>
+      <c r="B25" s="1084"/>
+      <c r="C25" s="1085"/>
+      <c r="D25" s="1086"/>
+      <c r="E25" s="1087"/>
+      <c r="F25" s="1088"/>
+      <c r="G25" s="1084"/>
+      <c r="H25" s="1089"/>
+      <c r="I25" s="1085"/>
+      <c r="J25" s="1090"/>
+      <c r="K25" s="1091"/>
+      <c r="L25" s="1091"/>
+      <c r="M25" s="1091"/>
+      <c r="N25" s="1091"/>
+      <c r="O25" s="1091"/>
+      <c r="P25" s="1092"/>
+      <c r="Q25" s="1093"/>
+      <c r="R25" s="1094"/>
+      <c r="S25" s="1094"/>
+      <c r="T25" s="1094"/>
+      <c r="U25" s="1094"/>
+      <c r="V25" s="1094"/>
+      <c r="W25" s="1094"/>
+      <c r="X25" s="1094"/>
+      <c r="Y25" s="1094"/>
+      <c r="Z25" s="1094"/>
+      <c r="AA25" s="1094"/>
+      <c r="AB25" s="1094"/>
+      <c r="AC25" s="1094"/>
+      <c r="AD25" s="1094"/>
+      <c r="AE25" s="1095"/>
+      <c r="AF25" s="1090"/>
+      <c r="AG25" s="1091"/>
+      <c r="AH25" s="1091"/>
+      <c r="AI25" s="1092"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="1120"/>
-      <c r="C26" s="1121"/>
-      <c r="D26" s="1122"/>
-      <c r="E26" s="1123"/>
-      <c r="F26" s="1124"/>
-      <c r="G26" s="1120"/>
-      <c r="H26" s="1125"/>
-      <c r="I26" s="1121"/>
-      <c r="J26" s="1126"/>
-      <c r="K26" s="1127"/>
-      <c r="L26" s="1127"/>
-      <c r="M26" s="1127"/>
-      <c r="N26" s="1127"/>
-      <c r="O26" s="1127"/>
-      <c r="P26" s="1128"/>
-      <c r="Q26" s="1129"/>
-      <c r="R26" s="1130"/>
-      <c r="S26" s="1130"/>
-      <c r="T26" s="1130"/>
-      <c r="U26" s="1130"/>
-      <c r="V26" s="1130"/>
-      <c r="W26" s="1130"/>
-      <c r="X26" s="1130"/>
-      <c r="Y26" s="1130"/>
-      <c r="Z26" s="1130"/>
-      <c r="AA26" s="1130"/>
-      <c r="AB26" s="1130"/>
-      <c r="AC26" s="1130"/>
-      <c r="AD26" s="1130"/>
-      <c r="AE26" s="1131"/>
-      <c r="AF26" s="1126"/>
-      <c r="AG26" s="1127"/>
-      <c r="AH26" s="1127"/>
-      <c r="AI26" s="1128"/>
+      <c r="B26" s="1084"/>
+      <c r="C26" s="1085"/>
+      <c r="D26" s="1086"/>
+      <c r="E26" s="1087"/>
+      <c r="F26" s="1088"/>
+      <c r="G26" s="1084"/>
+      <c r="H26" s="1089"/>
+      <c r="I26" s="1085"/>
+      <c r="J26" s="1090"/>
+      <c r="K26" s="1091"/>
+      <c r="L26" s="1091"/>
+      <c r="M26" s="1091"/>
+      <c r="N26" s="1091"/>
+      <c r="O26" s="1091"/>
+      <c r="P26" s="1092"/>
+      <c r="Q26" s="1093"/>
+      <c r="R26" s="1094"/>
+      <c r="S26" s="1094"/>
+      <c r="T26" s="1094"/>
+      <c r="U26" s="1094"/>
+      <c r="V26" s="1094"/>
+      <c r="W26" s="1094"/>
+      <c r="X26" s="1094"/>
+      <c r="Y26" s="1094"/>
+      <c r="Z26" s="1094"/>
+      <c r="AA26" s="1094"/>
+      <c r="AB26" s="1094"/>
+      <c r="AC26" s="1094"/>
+      <c r="AD26" s="1094"/>
+      <c r="AE26" s="1095"/>
+      <c r="AF26" s="1090"/>
+      <c r="AG26" s="1091"/>
+      <c r="AH26" s="1091"/>
+      <c r="AI26" s="1092"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="1120"/>
-      <c r="C27" s="1121"/>
-      <c r="D27" s="1122"/>
-      <c r="E27" s="1123"/>
-      <c r="F27" s="1124"/>
-      <c r="G27" s="1120"/>
-      <c r="H27" s="1125"/>
-      <c r="I27" s="1121"/>
-      <c r="J27" s="1126"/>
-      <c r="K27" s="1127"/>
-      <c r="L27" s="1127"/>
-      <c r="M27" s="1127"/>
-      <c r="N27" s="1127"/>
-      <c r="O27" s="1127"/>
-      <c r="P27" s="1128"/>
-      <c r="Q27" s="1129"/>
-      <c r="R27" s="1130"/>
-      <c r="S27" s="1130"/>
-      <c r="T27" s="1130"/>
-      <c r="U27" s="1130"/>
-      <c r="V27" s="1130"/>
-      <c r="W27" s="1130"/>
-      <c r="X27" s="1130"/>
-      <c r="Y27" s="1130"/>
-      <c r="Z27" s="1130"/>
-      <c r="AA27" s="1130"/>
-      <c r="AB27" s="1130"/>
-      <c r="AC27" s="1130"/>
-      <c r="AD27" s="1130"/>
-      <c r="AE27" s="1131"/>
-      <c r="AF27" s="1126"/>
-      <c r="AG27" s="1127"/>
-      <c r="AH27" s="1127"/>
-      <c r="AI27" s="1128"/>
+      <c r="B27" s="1084"/>
+      <c r="C27" s="1085"/>
+      <c r="D27" s="1086"/>
+      <c r="E27" s="1087"/>
+      <c r="F27" s="1088"/>
+      <c r="G27" s="1084"/>
+      <c r="H27" s="1089"/>
+      <c r="I27" s="1085"/>
+      <c r="J27" s="1090"/>
+      <c r="K27" s="1091"/>
+      <c r="L27" s="1091"/>
+      <c r="M27" s="1091"/>
+      <c r="N27" s="1091"/>
+      <c r="O27" s="1091"/>
+      <c r="P27" s="1092"/>
+      <c r="Q27" s="1093"/>
+      <c r="R27" s="1094"/>
+      <c r="S27" s="1094"/>
+      <c r="T27" s="1094"/>
+      <c r="U27" s="1094"/>
+      <c r="V27" s="1094"/>
+      <c r="W27" s="1094"/>
+      <c r="X27" s="1094"/>
+      <c r="Y27" s="1094"/>
+      <c r="Z27" s="1094"/>
+      <c r="AA27" s="1094"/>
+      <c r="AB27" s="1094"/>
+      <c r="AC27" s="1094"/>
+      <c r="AD27" s="1094"/>
+      <c r="AE27" s="1095"/>
+      <c r="AF27" s="1090"/>
+      <c r="AG27" s="1091"/>
+      <c r="AH27" s="1091"/>
+      <c r="AI27" s="1092"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="1120"/>
-      <c r="C28" s="1121"/>
-      <c r="D28" s="1122"/>
-      <c r="E28" s="1123"/>
-      <c r="F28" s="1124"/>
-      <c r="G28" s="1120"/>
-      <c r="H28" s="1125"/>
-      <c r="I28" s="1121"/>
-      <c r="J28" s="1126"/>
-      <c r="K28" s="1127"/>
-      <c r="L28" s="1127"/>
-      <c r="M28" s="1127"/>
-      <c r="N28" s="1127"/>
-      <c r="O28" s="1127"/>
-      <c r="P28" s="1128"/>
-      <c r="Q28" s="1129"/>
-      <c r="R28" s="1130"/>
-      <c r="S28" s="1130"/>
-      <c r="T28" s="1130"/>
-      <c r="U28" s="1130"/>
-      <c r="V28" s="1130"/>
-      <c r="W28" s="1130"/>
-      <c r="X28" s="1130"/>
-      <c r="Y28" s="1130"/>
-      <c r="Z28" s="1130"/>
-      <c r="AA28" s="1130"/>
-      <c r="AB28" s="1130"/>
-      <c r="AC28" s="1130"/>
-      <c r="AD28" s="1130"/>
-      <c r="AE28" s="1131"/>
-      <c r="AF28" s="1126"/>
-      <c r="AG28" s="1127"/>
-      <c r="AH28" s="1127"/>
-      <c r="AI28" s="1128"/>
+      <c r="B28" s="1084"/>
+      <c r="C28" s="1085"/>
+      <c r="D28" s="1086"/>
+      <c r="E28" s="1087"/>
+      <c r="F28" s="1088"/>
+      <c r="G28" s="1084"/>
+      <c r="H28" s="1089"/>
+      <c r="I28" s="1085"/>
+      <c r="J28" s="1090"/>
+      <c r="K28" s="1091"/>
+      <c r="L28" s="1091"/>
+      <c r="M28" s="1091"/>
+      <c r="N28" s="1091"/>
+      <c r="O28" s="1091"/>
+      <c r="P28" s="1092"/>
+      <c r="Q28" s="1093"/>
+      <c r="R28" s="1094"/>
+      <c r="S28" s="1094"/>
+      <c r="T28" s="1094"/>
+      <c r="U28" s="1094"/>
+      <c r="V28" s="1094"/>
+      <c r="W28" s="1094"/>
+      <c r="X28" s="1094"/>
+      <c r="Y28" s="1094"/>
+      <c r="Z28" s="1094"/>
+      <c r="AA28" s="1094"/>
+      <c r="AB28" s="1094"/>
+      <c r="AC28" s="1094"/>
+      <c r="AD28" s="1094"/>
+      <c r="AE28" s="1095"/>
+      <c r="AF28" s="1090"/>
+      <c r="AG28" s="1091"/>
+      <c r="AH28" s="1091"/>
+      <c r="AI28" s="1092"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="1120"/>
-      <c r="C29" s="1121"/>
-      <c r="D29" s="1122"/>
-      <c r="E29" s="1123"/>
-      <c r="F29" s="1124"/>
-      <c r="G29" s="1120"/>
-      <c r="H29" s="1125"/>
-      <c r="I29" s="1121"/>
-      <c r="J29" s="1126"/>
-      <c r="K29" s="1127"/>
-      <c r="L29" s="1127"/>
-      <c r="M29" s="1127"/>
-      <c r="N29" s="1127"/>
-      <c r="O29" s="1127"/>
-      <c r="P29" s="1128"/>
-      <c r="Q29" s="1129"/>
-      <c r="R29" s="1130"/>
-      <c r="S29" s="1130"/>
-      <c r="T29" s="1130"/>
-      <c r="U29" s="1130"/>
-      <c r="V29" s="1130"/>
-      <c r="W29" s="1130"/>
-      <c r="X29" s="1130"/>
-      <c r="Y29" s="1130"/>
-      <c r="Z29" s="1130"/>
-      <c r="AA29" s="1130"/>
-      <c r="AB29" s="1130"/>
-      <c r="AC29" s="1130"/>
-      <c r="AD29" s="1130"/>
-      <c r="AE29" s="1131"/>
-      <c r="AF29" s="1126"/>
-      <c r="AG29" s="1127"/>
-      <c r="AH29" s="1127"/>
-      <c r="AI29" s="1128"/>
+      <c r="B29" s="1084"/>
+      <c r="C29" s="1085"/>
+      <c r="D29" s="1086"/>
+      <c r="E29" s="1087"/>
+      <c r="F29" s="1088"/>
+      <c r="G29" s="1084"/>
+      <c r="H29" s="1089"/>
+      <c r="I29" s="1085"/>
+      <c r="J29" s="1090"/>
+      <c r="K29" s="1091"/>
+      <c r="L29" s="1091"/>
+      <c r="M29" s="1091"/>
+      <c r="N29" s="1091"/>
+      <c r="O29" s="1091"/>
+      <c r="P29" s="1092"/>
+      <c r="Q29" s="1093"/>
+      <c r="R29" s="1094"/>
+      <c r="S29" s="1094"/>
+      <c r="T29" s="1094"/>
+      <c r="U29" s="1094"/>
+      <c r="V29" s="1094"/>
+      <c r="W29" s="1094"/>
+      <c r="X29" s="1094"/>
+      <c r="Y29" s="1094"/>
+      <c r="Z29" s="1094"/>
+      <c r="AA29" s="1094"/>
+      <c r="AB29" s="1094"/>
+      <c r="AC29" s="1094"/>
+      <c r="AD29" s="1094"/>
+      <c r="AE29" s="1095"/>
+      <c r="AF29" s="1090"/>
+      <c r="AG29" s="1091"/>
+      <c r="AH29" s="1091"/>
+      <c r="AI29" s="1092"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="1120"/>
-      <c r="C30" s="1121"/>
-      <c r="D30" s="1122"/>
-      <c r="E30" s="1123"/>
-      <c r="F30" s="1124"/>
-      <c r="G30" s="1120"/>
-      <c r="H30" s="1125"/>
-      <c r="I30" s="1121"/>
-      <c r="J30" s="1126"/>
-      <c r="K30" s="1127"/>
-      <c r="L30" s="1127"/>
-      <c r="M30" s="1127"/>
-      <c r="N30" s="1127"/>
-      <c r="O30" s="1127"/>
-      <c r="P30" s="1128"/>
-      <c r="Q30" s="1129"/>
-      <c r="R30" s="1130"/>
-      <c r="S30" s="1130"/>
-      <c r="T30" s="1130"/>
-      <c r="U30" s="1130"/>
-      <c r="V30" s="1130"/>
-      <c r="W30" s="1130"/>
-      <c r="X30" s="1130"/>
-      <c r="Y30" s="1130"/>
-      <c r="Z30" s="1130"/>
-      <c r="AA30" s="1130"/>
-      <c r="AB30" s="1130"/>
-      <c r="AC30" s="1130"/>
-      <c r="AD30" s="1130"/>
-      <c r="AE30" s="1131"/>
-      <c r="AF30" s="1126"/>
-      <c r="AG30" s="1127"/>
-      <c r="AH30" s="1127"/>
-      <c r="AI30" s="1128"/>
+      <c r="B30" s="1084"/>
+      <c r="C30" s="1085"/>
+      <c r="D30" s="1086"/>
+      <c r="E30" s="1087"/>
+      <c r="F30" s="1088"/>
+      <c r="G30" s="1084"/>
+      <c r="H30" s="1089"/>
+      <c r="I30" s="1085"/>
+      <c r="J30" s="1090"/>
+      <c r="K30" s="1091"/>
+      <c r="L30" s="1091"/>
+      <c r="M30" s="1091"/>
+      <c r="N30" s="1091"/>
+      <c r="O30" s="1091"/>
+      <c r="P30" s="1092"/>
+      <c r="Q30" s="1093"/>
+      <c r="R30" s="1094"/>
+      <c r="S30" s="1094"/>
+      <c r="T30" s="1094"/>
+      <c r="U30" s="1094"/>
+      <c r="V30" s="1094"/>
+      <c r="W30" s="1094"/>
+      <c r="X30" s="1094"/>
+      <c r="Y30" s="1094"/>
+      <c r="Z30" s="1094"/>
+      <c r="AA30" s="1094"/>
+      <c r="AB30" s="1094"/>
+      <c r="AC30" s="1094"/>
+      <c r="AD30" s="1094"/>
+      <c r="AE30" s="1095"/>
+      <c r="AF30" s="1090"/>
+      <c r="AG30" s="1091"/>
+      <c r="AH30" s="1091"/>
+      <c r="AI30" s="1092"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="1120"/>
-      <c r="C31" s="1121"/>
-      <c r="D31" s="1122"/>
-      <c r="E31" s="1123"/>
-      <c r="F31" s="1124"/>
-      <c r="G31" s="1120"/>
-      <c r="H31" s="1125"/>
-      <c r="I31" s="1121"/>
-      <c r="J31" s="1126"/>
-      <c r="K31" s="1127"/>
-      <c r="L31" s="1127"/>
-      <c r="M31" s="1127"/>
-      <c r="N31" s="1127"/>
-      <c r="O31" s="1127"/>
-      <c r="P31" s="1128"/>
-      <c r="Q31" s="1129"/>
-      <c r="R31" s="1130"/>
-      <c r="S31" s="1130"/>
-      <c r="T31" s="1130"/>
-      <c r="U31" s="1130"/>
-      <c r="V31" s="1130"/>
-      <c r="W31" s="1130"/>
-      <c r="X31" s="1130"/>
-      <c r="Y31" s="1130"/>
-      <c r="Z31" s="1130"/>
-      <c r="AA31" s="1130"/>
-      <c r="AB31" s="1130"/>
-      <c r="AC31" s="1130"/>
-      <c r="AD31" s="1130"/>
-      <c r="AE31" s="1131"/>
-      <c r="AF31" s="1126"/>
-      <c r="AG31" s="1127"/>
-      <c r="AH31" s="1127"/>
-      <c r="AI31" s="1128"/>
+      <c r="B31" s="1084"/>
+      <c r="C31" s="1085"/>
+      <c r="D31" s="1086"/>
+      <c r="E31" s="1087"/>
+      <c r="F31" s="1088"/>
+      <c r="G31" s="1084"/>
+      <c r="H31" s="1089"/>
+      <c r="I31" s="1085"/>
+      <c r="J31" s="1090"/>
+      <c r="K31" s="1091"/>
+      <c r="L31" s="1091"/>
+      <c r="M31" s="1091"/>
+      <c r="N31" s="1091"/>
+      <c r="O31" s="1091"/>
+      <c r="P31" s="1092"/>
+      <c r="Q31" s="1093"/>
+      <c r="R31" s="1094"/>
+      <c r="S31" s="1094"/>
+      <c r="T31" s="1094"/>
+      <c r="U31" s="1094"/>
+      <c r="V31" s="1094"/>
+      <c r="W31" s="1094"/>
+      <c r="X31" s="1094"/>
+      <c r="Y31" s="1094"/>
+      <c r="Z31" s="1094"/>
+      <c r="AA31" s="1094"/>
+      <c r="AB31" s="1094"/>
+      <c r="AC31" s="1094"/>
+      <c r="AD31" s="1094"/>
+      <c r="AE31" s="1095"/>
+      <c r="AF31" s="1090"/>
+      <c r="AG31" s="1091"/>
+      <c r="AH31" s="1091"/>
+      <c r="AI31" s="1092"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="1120"/>
-      <c r="C32" s="1121"/>
-      <c r="D32" s="1122"/>
-      <c r="E32" s="1123"/>
-      <c r="F32" s="1124"/>
-      <c r="G32" s="1120"/>
-      <c r="H32" s="1125"/>
-      <c r="I32" s="1121"/>
-      <c r="J32" s="1126"/>
-      <c r="K32" s="1145"/>
-      <c r="L32" s="1127"/>
-      <c r="M32" s="1127"/>
-      <c r="N32" s="1127"/>
-      <c r="O32" s="1127"/>
-      <c r="P32" s="1128"/>
-      <c r="Q32" s="1129"/>
-      <c r="R32" s="1130"/>
-      <c r="S32" s="1130"/>
-      <c r="T32" s="1130"/>
-      <c r="U32" s="1130"/>
-      <c r="V32" s="1130"/>
-      <c r="W32" s="1130"/>
-      <c r="X32" s="1130"/>
-      <c r="Y32" s="1130"/>
-      <c r="Z32" s="1130"/>
-      <c r="AA32" s="1130"/>
-      <c r="AB32" s="1130"/>
-      <c r="AC32" s="1130"/>
-      <c r="AD32" s="1130"/>
-      <c r="AE32" s="1131"/>
-      <c r="AF32" s="1126"/>
-      <c r="AG32" s="1127"/>
-      <c r="AH32" s="1127"/>
-      <c r="AI32" s="1128"/>
+      <c r="B32" s="1084"/>
+      <c r="C32" s="1085"/>
+      <c r="D32" s="1086"/>
+      <c r="E32" s="1087"/>
+      <c r="F32" s="1088"/>
+      <c r="G32" s="1084"/>
+      <c r="H32" s="1089"/>
+      <c r="I32" s="1085"/>
+      <c r="J32" s="1090"/>
+      <c r="K32" s="1096"/>
+      <c r="L32" s="1091"/>
+      <c r="M32" s="1091"/>
+      <c r="N32" s="1091"/>
+      <c r="O32" s="1091"/>
+      <c r="P32" s="1092"/>
+      <c r="Q32" s="1093"/>
+      <c r="R32" s="1094"/>
+      <c r="S32" s="1094"/>
+      <c r="T32" s="1094"/>
+      <c r="U32" s="1094"/>
+      <c r="V32" s="1094"/>
+      <c r="W32" s="1094"/>
+      <c r="X32" s="1094"/>
+      <c r="Y32" s="1094"/>
+      <c r="Z32" s="1094"/>
+      <c r="AA32" s="1094"/>
+      <c r="AB32" s="1094"/>
+      <c r="AC32" s="1094"/>
+      <c r="AD32" s="1094"/>
+      <c r="AE32" s="1095"/>
+      <c r="AF32" s="1090"/>
+      <c r="AG32" s="1091"/>
+      <c r="AH32" s="1091"/>
+      <c r="AI32" s="1092"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="1120"/>
-      <c r="C33" s="1121"/>
-      <c r="D33" s="1122"/>
-      <c r="E33" s="1123"/>
-      <c r="F33" s="1124"/>
-      <c r="G33" s="1120"/>
-      <c r="H33" s="1125"/>
-      <c r="I33" s="1121"/>
-      <c r="J33" s="1126"/>
-      <c r="K33" s="1127"/>
-      <c r="L33" s="1127"/>
-      <c r="M33" s="1127"/>
-      <c r="N33" s="1127"/>
-      <c r="O33" s="1127"/>
-      <c r="P33" s="1128"/>
-      <c r="Q33" s="1129"/>
-      <c r="R33" s="1130"/>
-      <c r="S33" s="1130"/>
-      <c r="T33" s="1130"/>
-      <c r="U33" s="1130"/>
-      <c r="V33" s="1130"/>
-      <c r="W33" s="1130"/>
-      <c r="X33" s="1130"/>
-      <c r="Y33" s="1130"/>
-      <c r="Z33" s="1130"/>
-      <c r="AA33" s="1130"/>
-      <c r="AB33" s="1130"/>
-      <c r="AC33" s="1130"/>
-      <c r="AD33" s="1130"/>
-      <c r="AE33" s="1131"/>
-      <c r="AF33" s="1126"/>
-      <c r="AG33" s="1127"/>
-      <c r="AH33" s="1127"/>
-      <c r="AI33" s="1128"/>
+      <c r="B33" s="1084"/>
+      <c r="C33" s="1085"/>
+      <c r="D33" s="1086"/>
+      <c r="E33" s="1087"/>
+      <c r="F33" s="1088"/>
+      <c r="G33" s="1084"/>
+      <c r="H33" s="1089"/>
+      <c r="I33" s="1085"/>
+      <c r="J33" s="1090"/>
+      <c r="K33" s="1091"/>
+      <c r="L33" s="1091"/>
+      <c r="M33" s="1091"/>
+      <c r="N33" s="1091"/>
+      <c r="O33" s="1091"/>
+      <c r="P33" s="1092"/>
+      <c r="Q33" s="1093"/>
+      <c r="R33" s="1094"/>
+      <c r="S33" s="1094"/>
+      <c r="T33" s="1094"/>
+      <c r="U33" s="1094"/>
+      <c r="V33" s="1094"/>
+      <c r="W33" s="1094"/>
+      <c r="X33" s="1094"/>
+      <c r="Y33" s="1094"/>
+      <c r="Z33" s="1094"/>
+      <c r="AA33" s="1094"/>
+      <c r="AB33" s="1094"/>
+      <c r="AC33" s="1094"/>
+      <c r="AD33" s="1094"/>
+      <c r="AE33" s="1095"/>
+      <c r="AF33" s="1090"/>
+      <c r="AG33" s="1091"/>
+      <c r="AH33" s="1091"/>
+      <c r="AI33" s="1092"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13590,6 +12763,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -13605,7 +12934,7 @@
   </sheetPr>
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
@@ -13631,7 +12960,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="349" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -13646,7 +12975,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="349" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I6" s="349" t="s">
         <v>331</v>
@@ -13799,7 +13128,7 @@
       <c r="H12" s="408"/>
       <c r="I12" s="408"/>
       <c r="J12" s="409" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K12" s="401" t="s">
         <v>352</v>
@@ -13831,10 +13160,10 @@
       <c r="H13" s="408"/>
       <c r="I13" s="408"/>
       <c r="J13" s="409" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K13" s="409" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L13" s="402"/>
       <c r="M13" s="403"/>
@@ -13921,7 +13250,7 @@
         <v>323</v>
       </c>
       <c r="D16" s="372" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E16" s="372" t="s">
         <v>324</v>
@@ -13932,13 +13261,13 @@
         <v>346</v>
       </c>
       <c r="I16" s="428" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J16" s="428" t="s">
         <v>355</v>
       </c>
       <c r="K16" s="428" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L16" s="429"/>
       <c r="M16" s="430"/>
@@ -13962,7 +13291,7 @@
       <c r="C17" s="373"/>
       <c r="D17" s="374"/>
       <c r="E17" s="375" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="60"/>
@@ -13976,7 +13305,7 @@
         <v>357</v>
       </c>
       <c r="K17" s="435" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="L17" s="436"/>
       <c r="M17" s="437"/>
@@ -14000,7 +13329,7 @@
       <c r="C18" s="373"/>
       <c r="D18" s="374"/>
       <c r="E18" s="376" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F18" s="320"/>
       <c r="G18" s="321"/>
@@ -14008,13 +13337,13 @@
         <v>346</v>
       </c>
       <c r="I18" s="442" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J18" s="443" t="s">
         <v>358</v>
       </c>
       <c r="K18" s="443" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L18" s="444"/>
       <c r="M18" s="445"/>
@@ -14044,7 +13373,7 @@
         <v>359</v>
       </c>
       <c r="K19" s="443" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L19" s="449"/>
       <c r="M19" s="450"/>
@@ -14074,7 +13403,7 @@
         <v>360</v>
       </c>
       <c r="K20" s="454" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="L20" s="449"/>
       <c r="M20" s="450"/>
@@ -14098,7 +13427,7 @@
       <c r="C21" s="381"/>
       <c r="D21" s="382"/>
       <c r="E21" s="383" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F21" s="74"/>
       <c r="G21" s="75"/>
@@ -14106,10 +13435,10 @@
         <v>346</v>
       </c>
       <c r="I21" s="456" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J21" s="456" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K21" s="456"/>
       <c r="L21" s="457"/>
@@ -14213,7 +13542,7 @@
       <c r="B25" s="392"/>
       <c r="C25" s="382"/>
       <c r="D25" s="393" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E25" s="394"/>
       <c r="F25" s="49"/>
@@ -14225,7 +13554,7 @@
         <v>368</v>
       </c>
       <c r="J25" s="470" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="K25" s="470"/>
       <c r="L25" s="471"/>
@@ -14387,7 +13716,7 @@
         <v>368</v>
       </c>
       <c r="J30" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K30" s="420"/>
       <c r="L30" s="512"/>
@@ -14406,7 +13735,7 @@
       <c r="C31" s="480"/>
       <c r="D31" s="481"/>
       <c r="E31" s="479" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F31" s="74"/>
       <c r="G31" s="75"/>
@@ -14417,7 +13746,7 @@
         <v>368</v>
       </c>
       <c r="J31" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K31" s="420"/>
       <c r="L31" s="512"/>
@@ -14447,7 +13776,7 @@
         <v>368</v>
       </c>
       <c r="J32" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K32" s="420"/>
       <c r="L32" s="512"/>
@@ -14477,7 +13806,7 @@
         <v>368</v>
       </c>
       <c r="J33" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K33" s="420"/>
       <c r="L33" s="512"/>
@@ -14507,7 +13836,7 @@
         <v>368</v>
       </c>
       <c r="J34" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K34" s="420"/>
       <c r="L34" s="512"/>
@@ -14526,7 +13855,7 @@
       <c r="C35" s="382"/>
       <c r="D35" s="382"/>
       <c r="E35" s="383" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F35" s="74"/>
       <c r="G35" s="75"/>
@@ -14537,7 +13866,7 @@
         <v>356</v>
       </c>
       <c r="J35" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K35" s="420"/>
       <c r="L35" s="512"/>
@@ -14556,7 +13885,7 @@
       <c r="C36" s="382"/>
       <c r="D36" s="482"/>
       <c r="E36" s="482" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F36" s="89"/>
       <c r="G36" s="90"/>
@@ -14567,7 +13896,7 @@
         <v>368</v>
       </c>
       <c r="J36" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K36" s="518"/>
       <c r="L36" s="519"/>
@@ -14599,7 +13928,7 @@
         <v>368</v>
       </c>
       <c r="J37" s="518" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K37" s="518"/>
       <c r="L37" s="519"/>
@@ -14625,13 +13954,13 @@
       <c r="F38" s="89"/>
       <c r="G38" s="90"/>
       <c r="H38" s="525" t="s">
+        <v>458</v>
+      </c>
+      <c r="I38" s="526" t="s">
         <v>459</v>
       </c>
-      <c r="I38" s="526" t="s">
+      <c r="J38" s="526" t="s">
         <v>460</v>
-      </c>
-      <c r="J38" s="526" t="s">
-        <v>461</v>
       </c>
       <c r="K38" s="526"/>
       <c r="L38" s="527"/>
@@ -14650,18 +13979,18 @@
       <c r="C39" s="381"/>
       <c r="D39" s="485"/>
       <c r="E39" s="484" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F39" s="89"/>
       <c r="G39" s="90"/>
       <c r="H39" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I39" s="526" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J39" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K39" s="526"/>
       <c r="L39" s="527"/>
@@ -14685,13 +14014,13 @@
       <c r="F40" s="89"/>
       <c r="G40" s="90"/>
       <c r="H40" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I40" s="526" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J40" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K40" s="526"/>
       <c r="L40" s="527"/>
@@ -14715,13 +14044,13 @@
       <c r="F41" s="89"/>
       <c r="G41" s="90"/>
       <c r="H41" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I41" s="526" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J41" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K41" s="526"/>
       <c r="L41" s="527"/>
@@ -14745,13 +14074,13 @@
       <c r="F42" s="89"/>
       <c r="G42" s="90"/>
       <c r="H42" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I42" s="526" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J42" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K42" s="526"/>
       <c r="L42" s="534"/>
@@ -14775,13 +14104,13 @@
       <c r="F43" s="89"/>
       <c r="G43" s="90"/>
       <c r="H43" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I43" s="526" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J43" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K43" s="526"/>
       <c r="L43" s="534"/>
@@ -14808,10 +14137,10 @@
         <v>346</v>
       </c>
       <c r="I44" s="526" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J44" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K44" s="526"/>
       <c r="L44" s="534"/>
@@ -14838,10 +14167,10 @@
         <v>346</v>
       </c>
       <c r="I45" s="526" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J45" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K45" s="526"/>
       <c r="L45" s="534"/>
@@ -14868,10 +14197,10 @@
         <v>346</v>
       </c>
       <c r="I46" s="526" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J46" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K46" s="526"/>
       <c r="L46" s="534"/>
@@ -14892,18 +14221,18 @@
         <v>403</v>
       </c>
       <c r="E47" s="484" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F47" s="89"/>
       <c r="G47" s="90"/>
       <c r="H47" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I47" s="526" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J47" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K47" s="526"/>
       <c r="L47" s="534"/>
@@ -14927,13 +14256,13 @@
       <c r="F48" s="89"/>
       <c r="G48" s="90"/>
       <c r="H48" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I48" s="526" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J48" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K48" s="526"/>
       <c r="L48" s="534"/>
@@ -14957,13 +14286,13 @@
       <c r="F49" s="89"/>
       <c r="G49" s="90"/>
       <c r="H49" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I49" s="526" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J49" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K49" s="526"/>
       <c r="L49" s="534"/>
@@ -14987,13 +14316,13 @@
       <c r="F50" s="89"/>
       <c r="G50" s="90"/>
       <c r="H50" s="533" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I50" s="526" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J50" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K50" s="526"/>
       <c r="L50" s="534"/>
@@ -15012,7 +14341,7 @@
       <c r="C51" s="381"/>
       <c r="D51" s="485"/>
       <c r="E51" s="489" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F51" s="89"/>
       <c r="G51" s="90"/>
@@ -15023,7 +14352,7 @@
         <v>356</v>
       </c>
       <c r="J51" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K51" s="538"/>
       <c r="L51" s="539"/>
@@ -15049,13 +14378,13 @@
       <c r="F52" s="91"/>
       <c r="G52" s="92"/>
       <c r="H52" s="542" t="s">
+        <v>465</v>
+      </c>
+      <c r="I52" s="543" t="s">
         <v>466</v>
       </c>
-      <c r="I52" s="543" t="s">
+      <c r="J52" s="526" t="s">
         <v>467</v>
-      </c>
-      <c r="J52" s="526" t="s">
-        <v>468</v>
       </c>
       <c r="K52" s="543"/>
       <c r="L52" s="544"/>
@@ -15079,13 +14408,13 @@
       <c r="F53" s="93"/>
       <c r="G53" s="94"/>
       <c r="H53" s="548" t="s">
+        <v>465</v>
+      </c>
+      <c r="I53" s="549" t="s">
         <v>466</v>
       </c>
-      <c r="I53" s="549" t="s">
+      <c r="J53" s="526" t="s">
         <v>467</v>
-      </c>
-      <c r="J53" s="526" t="s">
-        <v>468</v>
       </c>
       <c r="K53" s="549"/>
       <c r="L53" s="550"/>
@@ -15115,7 +14444,7 @@
         <v>368</v>
       </c>
       <c r="J54" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K54" s="555"/>
       <c r="L54" s="556"/>
@@ -15145,7 +14474,7 @@
         <v>368</v>
       </c>
       <c r="J55" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K55" s="561"/>
       <c r="L55" s="562"/>
@@ -15175,7 +14504,7 @@
         <v>368</v>
       </c>
       <c r="J56" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K56" s="567"/>
       <c r="L56" s="568"/>
@@ -15205,7 +14534,7 @@
         <v>368</v>
       </c>
       <c r="J57" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K57" s="573"/>
       <c r="L57" s="574"/>
@@ -15235,7 +14564,7 @@
         <v>368</v>
       </c>
       <c r="J58" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K58" s="579"/>
       <c r="L58" s="580"/>
@@ -15265,7 +14594,7 @@
         <v>368</v>
       </c>
       <c r="J59" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K59" s="585"/>
       <c r="L59" s="586"/>
@@ -15295,7 +14624,7 @@
         <v>368</v>
       </c>
       <c r="J60" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K60" s="591"/>
       <c r="L60" s="592"/>
@@ -15317,24 +14646,24 @@
         <v>428</v>
       </c>
       <c r="D61" s="502" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E61" s="503" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="63"/>
       <c r="H61" s="596" t="s">
+        <v>468</v>
+      </c>
+      <c r="I61" s="374" t="s">
+        <v>609</v>
+      </c>
+      <c r="J61" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I61" s="374" t="s">
-        <v>429</v>
-      </c>
-      <c r="J61" s="597" t="s">
+      <c r="K61" s="598" t="s">
         <v>470</v>
-      </c>
-      <c r="K61" s="598" t="s">
-        <v>471</v>
       </c>
       <c r="L61" s="599"/>
       <c r="M61" s="600"/>
@@ -15352,27 +14681,27 @@
     </row>
     <row r="62" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A62" s="501" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B62" s="374"/>
       <c r="C62" s="374"/>
       <c r="D62" s="374"/>
       <c r="E62" s="504" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F62" s="64"/>
       <c r="G62" s="65"/>
       <c r="H62" s="602" t="s">
+        <v>468</v>
+      </c>
+      <c r="I62" s="602" t="s">
+        <v>471</v>
+      </c>
+      <c r="J62" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I62" s="602" t="s">
+      <c r="K62" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J62" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K62" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L62" s="410"/>
       <c r="M62" s="411"/>
@@ -15390,27 +14719,27 @@
     </row>
     <row r="63" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A63" s="501" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" s="374"/>
       <c r="C63" s="374"/>
       <c r="D63" s="374"/>
       <c r="E63" s="504" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="65"/>
       <c r="H63" s="602" t="s">
+        <v>468</v>
+      </c>
+      <c r="I63" s="602" t="s">
+        <v>471</v>
+      </c>
+      <c r="J63" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I63" s="602" t="s">
+      <c r="K63" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J63" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K63" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L63" s="410"/>
       <c r="M63" s="411"/>
@@ -15428,27 +14757,27 @@
     </row>
     <row r="64" spans="1:18" s="604" customFormat="1" ht="48">
       <c r="A64" s="501" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B64" s="374"/>
       <c r="C64" s="374"/>
       <c r="D64" s="374"/>
       <c r="E64" s="504" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F64" s="64"/>
       <c r="G64" s="65"/>
       <c r="H64" s="602" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I64" s="602" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J64" s="597" t="s">
+        <v>473</v>
+      </c>
+      <c r="K64" s="597" t="s">
         <v>474</v>
-      </c>
-      <c r="K64" s="597" t="s">
-        <v>475</v>
       </c>
       <c r="L64" s="410"/>
       <c r="M64" s="411"/>
@@ -15466,27 +14795,27 @@
     </row>
     <row r="65" spans="1:18" s="604" customFormat="1" ht="36">
       <c r="A65" s="501" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="374"/>
       <c r="C65" s="374"/>
       <c r="D65" s="505"/>
       <c r="E65" s="504" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="65"/>
       <c r="H65" s="602" t="s">
+        <v>468</v>
+      </c>
+      <c r="I65" s="602" t="s">
+        <v>471</v>
+      </c>
+      <c r="J65" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I65" s="602" t="s">
+      <c r="K65" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J65" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K65" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L65" s="410"/>
       <c r="M65" s="411"/>
@@ -15509,21 +14838,21 @@
       <c r="B66" s="382"/>
       <c r="C66" s="382"/>
       <c r="D66" s="506" t="s">
+        <v>438</v>
+      </c>
+      <c r="E66" s="507" t="s">
         <v>439</v>
-      </c>
-      <c r="E66" s="507" t="s">
-        <v>440</v>
       </c>
       <c r="F66" s="109"/>
       <c r="G66" s="110"/>
       <c r="H66" s="605" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I66" s="605" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J66" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K66" s="508"/>
       <c r="L66" s="471"/>
@@ -15536,24 +14865,24 @@
     </row>
     <row r="67" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A67" s="487" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67" s="382"/>
       <c r="C67" s="382"/>
       <c r="D67" s="382"/>
       <c r="E67" s="508" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F67" s="109"/>
       <c r="G67" s="110"/>
       <c r="H67" s="605" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I67" s="605" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J67" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K67" s="508"/>
       <c r="L67" s="471"/>
@@ -15566,24 +14895,24 @@
     </row>
     <row r="68" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="487" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B68" s="382"/>
       <c r="C68" s="382"/>
       <c r="D68" s="482"/>
       <c r="E68" s="508" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F68" s="109"/>
       <c r="G68" s="110"/>
       <c r="H68" s="605" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I68" s="605" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J68" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K68" s="508"/>
       <c r="L68" s="471"/>
@@ -15596,29 +14925,29 @@
     </row>
     <row r="69" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A69" s="501" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B69" s="374"/>
       <c r="C69" s="374"/>
       <c r="D69" s="509" t="s">
+        <v>445</v>
+      </c>
+      <c r="E69" s="510" t="s">
         <v>446</v>
-      </c>
-      <c r="E69" s="510" t="s">
-        <v>447</v>
       </c>
       <c r="F69" s="312"/>
       <c r="G69" s="313"/>
       <c r="H69" s="596" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I69" s="596" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J69" s="510" t="s">
+        <v>476</v>
+      </c>
+      <c r="K69" s="510" t="s">
         <v>477</v>
-      </c>
-      <c r="K69" s="510" t="s">
-        <v>478</v>
       </c>
       <c r="L69" s="410"/>
       <c r="M69" s="411"/>
@@ -15636,27 +14965,27 @@
     </row>
     <row r="70" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A70" s="501" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B70" s="374"/>
       <c r="C70" s="374"/>
       <c r="D70" s="505"/>
       <c r="E70" s="510" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F70" s="312"/>
       <c r="G70" s="313"/>
       <c r="H70" s="596" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I70" s="596" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J70" s="510" t="s">
+        <v>478</v>
+      </c>
+      <c r="K70" s="510" t="s">
         <v>479</v>
-      </c>
-      <c r="K70" s="510" t="s">
-        <v>480</v>
       </c>
       <c r="L70" s="410"/>
       <c r="M70" s="411"/>
@@ -15674,15 +15003,15 @@
     </row>
     <row r="71" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A71" s="501" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B71" s="374"/>
       <c r="C71" s="374"/>
       <c r="D71" s="509" t="s">
+        <v>450</v>
+      </c>
+      <c r="E71" s="510" t="s">
         <v>451</v>
-      </c>
-      <c r="E71" s="510" t="s">
-        <v>452</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="63"/>
@@ -15690,13 +15019,13 @@
         <v>346</v>
       </c>
       <c r="I71" s="596" t="s">
+        <v>480</v>
+      </c>
+      <c r="J71" s="510" t="s">
+        <v>473</v>
+      </c>
+      <c r="K71" s="510" t="s">
         <v>481</v>
-      </c>
-      <c r="J71" s="510" t="s">
-        <v>474</v>
-      </c>
-      <c r="K71" s="510" t="s">
-        <v>482</v>
       </c>
       <c r="L71" s="410"/>
       <c r="M71" s="411"/>
@@ -15714,13 +15043,13 @@
     </row>
     <row r="72" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="501" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B72" s="374"/>
       <c r="C72" s="374"/>
       <c r="D72" s="374"/>
       <c r="E72" s="510" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="63"/>
@@ -15728,13 +15057,13 @@
         <v>346</v>
       </c>
       <c r="I72" s="596" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J72" s="510" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K72" s="510" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L72" s="410"/>
       <c r="M72" s="411"/>
@@ -15752,13 +15081,13 @@
     </row>
     <row r="73" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="487" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B73" s="382"/>
       <c r="C73" s="382"/>
       <c r="D73" s="382"/>
       <c r="E73" s="508" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F73" s="109"/>
       <c r="G73" s="110"/>
@@ -15766,10 +15095,10 @@
         <v>346</v>
       </c>
       <c r="I73" s="605" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J73" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K73" s="508"/>
       <c r="L73" s="471"/>
@@ -15814,13 +15143,13 @@
     </row>
     <row r="75" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A75" s="487" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B75" s="382"/>
       <c r="C75" s="382"/>
       <c r="D75" s="382"/>
       <c r="E75" s="508" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F75" s="109"/>
       <c r="G75" s="110"/>
@@ -15828,10 +15157,10 @@
         <v>346</v>
       </c>
       <c r="I75" s="605" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J75" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K75" s="508"/>
       <c r="L75" s="471"/>
@@ -15844,13 +15173,13 @@
     </row>
     <row r="76" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" s="382"/>
       <c r="C76" s="382"/>
       <c r="D76" s="382"/>
       <c r="E76" s="508" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F76" s="109"/>
       <c r="G76" s="110"/>
@@ -15858,10 +15187,10 @@
         <v>346</v>
       </c>
       <c r="I76" s="605" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J76" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K76" s="508"/>
       <c r="L76" s="471"/>
@@ -15874,13 +15203,13 @@
     </row>
     <row r="77" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A77" s="487" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B77" s="382"/>
       <c r="C77" s="382"/>
       <c r="D77" s="382"/>
       <c r="E77" s="508" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F77" s="109"/>
       <c r="G77" s="110"/>
@@ -15888,10 +15217,10 @@
         <v>346</v>
       </c>
       <c r="I77" s="605" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J77" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K77" s="508"/>
       <c r="L77" s="471"/>
@@ -15904,13 +15233,13 @@
     </row>
     <row r="78" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A78" s="487" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B78" s="382"/>
       <c r="C78" s="382"/>
       <c r="D78" s="482"/>
       <c r="E78" s="508" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F78" s="109"/>
       <c r="G78" s="110"/>
@@ -15918,10 +15247,10 @@
         <v>346</v>
       </c>
       <c r="I78" s="605" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J78" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K78" s="508"/>
       <c r="L78" s="471"/>
@@ -15934,12 +15263,12 @@
     </row>
     <row r="79" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A79" s="487" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" s="382"/>
       <c r="C79" s="382"/>
       <c r="D79" s="382" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E79" s="508" t="s">
         <v>391</v>
@@ -15950,10 +15279,10 @@
         <v>346</v>
       </c>
       <c r="I79" s="613" t="s">
+        <v>507</v>
+      </c>
+      <c r="J79" s="508" t="s">
         <v>508</v>
-      </c>
-      <c r="J79" s="508" t="s">
-        <v>509</v>
       </c>
       <c r="K79" s="508"/>
       <c r="L79" s="471"/>
@@ -15966,15 +15295,15 @@
     </row>
     <row r="80" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A80" s="487" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B80" s="382"/>
       <c r="C80" s="382"/>
       <c r="D80" s="611" t="s">
+        <v>495</v>
+      </c>
+      <c r="E80" s="508" t="s">
         <v>496</v>
-      </c>
-      <c r="E80" s="508" t="s">
-        <v>497</v>
       </c>
       <c r="F80" s="109"/>
       <c r="G80" s="110"/>
@@ -15982,10 +15311,10 @@
         <v>346</v>
       </c>
       <c r="I80" s="611" t="s">
+        <v>509</v>
+      </c>
+      <c r="J80" s="508" t="s">
         <v>510</v>
-      </c>
-      <c r="J80" s="508" t="s">
-        <v>511</v>
       </c>
       <c r="K80" s="508"/>
       <c r="L80" s="471"/>
@@ -15998,13 +15327,13 @@
     </row>
     <row r="81" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A81" s="487" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B81" s="382"/>
       <c r="C81" s="382"/>
       <c r="D81" s="382"/>
       <c r="E81" s="508" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F81" s="109"/>
       <c r="G81" s="110"/>
@@ -16012,10 +15341,10 @@
         <v>346</v>
       </c>
       <c r="I81" s="611" t="s">
+        <v>509</v>
+      </c>
+      <c r="J81" s="508" t="s">
         <v>510</v>
-      </c>
-      <c r="J81" s="508" t="s">
-        <v>511</v>
       </c>
       <c r="K81" s="508"/>
       <c r="L81" s="471"/>
@@ -16028,13 +15357,13 @@
     </row>
     <row r="82" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A82" s="487" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B82" s="382"/>
       <c r="C82" s="382"/>
       <c r="D82" s="482"/>
       <c r="E82" s="508" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F82" s="109"/>
       <c r="G82" s="110"/>
@@ -16042,10 +15371,10 @@
         <v>346</v>
       </c>
       <c r="I82" s="611" t="s">
+        <v>509</v>
+      </c>
+      <c r="J82" s="508" t="s">
         <v>510</v>
-      </c>
-      <c r="J82" s="508" t="s">
-        <v>511</v>
       </c>
       <c r="K82" s="508"/>
       <c r="L82" s="471"/>
@@ -16058,15 +15387,15 @@
     </row>
     <row r="83" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="501" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B83" s="374"/>
       <c r="C83" s="374"/>
       <c r="D83" s="509" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E83" s="510" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F83" s="62"/>
       <c r="G83" s="63"/>
@@ -16074,13 +15403,13 @@
         <v>346</v>
       </c>
       <c r="I83" s="509" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J83" s="510" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K83" s="510" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L83" s="410"/>
       <c r="M83" s="411"/>
@@ -16098,13 +15427,13 @@
     </row>
     <row r="84" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A84" s="501" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B84" s="374"/>
       <c r="C84" s="374"/>
       <c r="D84" s="374"/>
       <c r="E84" s="510" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F84" s="62"/>
       <c r="G84" s="63"/>
@@ -16112,13 +15441,13 @@
         <v>346</v>
       </c>
       <c r="I84" s="509" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J84" s="510" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K84" s="510" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L84" s="410"/>
       <c r="M84" s="411"/>
@@ -16136,13 +15465,13 @@
     </row>
     <row r="85" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A85" s="487" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B85" s="382"/>
       <c r="C85" s="382"/>
       <c r="D85" s="482"/>
       <c r="E85" s="612" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F85" s="109"/>
       <c r="G85" s="110"/>
@@ -16150,10 +15479,10 @@
         <v>346</v>
       </c>
       <c r="I85" s="611" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J85" s="508" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K85" s="508"/>
       <c r="L85" s="471"/>
@@ -16166,12 +15495,12 @@
     </row>
     <row r="86" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A86" s="487" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B86" s="382"/>
       <c r="C86" s="382"/>
       <c r="D86" s="393" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E86" s="394"/>
       <c r="F86" s="49"/>
@@ -16180,10 +15509,10 @@
         <v>346</v>
       </c>
       <c r="I86" s="611" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J86" s="508" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K86" s="508"/>
       <c r="L86" s="471"/>
@@ -16228,29 +15557,29 @@
     </row>
     <row r="88" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A88" s="501" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B88" s="374"/>
       <c r="C88" s="509" t="s">
+        <v>516</v>
+      </c>
+      <c r="D88" s="614" t="s">
         <v>517</v>
-      </c>
-      <c r="D88" s="614" t="s">
-        <v>518</v>
       </c>
       <c r="E88" s="615"/>
       <c r="F88" s="66"/>
       <c r="G88" s="67"/>
       <c r="H88" s="509" t="s">
+        <v>529</v>
+      </c>
+      <c r="I88" s="509" t="s">
         <v>530</v>
       </c>
-      <c r="I88" s="509" t="s">
-        <v>531</v>
-      </c>
       <c r="J88" s="510" t="s">
+        <v>473</v>
+      </c>
+      <c r="K88" s="510" t="s">
         <v>474</v>
-      </c>
-      <c r="K88" s="510" t="s">
-        <v>475</v>
       </c>
       <c r="L88" s="621"/>
       <c r="M88" s="622"/>
@@ -16268,29 +15597,29 @@
     </row>
     <row r="89" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A89" s="501" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B89" s="374"/>
       <c r="C89" s="374"/>
       <c r="D89" s="616" t="s">
+        <v>519</v>
+      </c>
+      <c r="E89" s="617" t="s">
         <v>520</v>
-      </c>
-      <c r="E89" s="617" t="s">
-        <v>521</v>
       </c>
       <c r="F89" s="66"/>
       <c r="G89" s="67"/>
       <c r="H89" s="509" t="s">
+        <v>529</v>
+      </c>
+      <c r="I89" s="509" t="s">
         <v>530</v>
       </c>
-      <c r="I89" s="509" t="s">
-        <v>531</v>
-      </c>
       <c r="J89" s="510" t="s">
+        <v>473</v>
+      </c>
+      <c r="K89" s="510" t="s">
         <v>474</v>
-      </c>
-      <c r="K89" s="510" t="s">
-        <v>475</v>
       </c>
       <c r="L89" s="621"/>
       <c r="M89" s="622"/>
@@ -16308,24 +15637,24 @@
     </row>
     <row r="90" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A90" s="487" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B90" s="382"/>
       <c r="C90" s="382"/>
       <c r="D90" s="618"/>
       <c r="E90" s="619" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F90" s="117"/>
       <c r="G90" s="118"/>
       <c r="H90" s="611" t="s">
+        <v>529</v>
+      </c>
+      <c r="I90" s="611" t="s">
         <v>530</v>
       </c>
-      <c r="I90" s="611" t="s">
+      <c r="J90" s="508" t="s">
         <v>531</v>
-      </c>
-      <c r="J90" s="508" t="s">
-        <v>532</v>
       </c>
       <c r="K90" s="508"/>
       <c r="L90" s="627"/>
@@ -16338,27 +15667,27 @@
     </row>
     <row r="91" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A91" s="501" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B91" s="374"/>
       <c r="C91" s="374"/>
       <c r="D91" s="616" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E91" s="620"/>
       <c r="F91" s="66"/>
       <c r="G91" s="67"/>
       <c r="H91" s="509" t="s">
+        <v>529</v>
+      </c>
+      <c r="I91" s="509" t="s">
         <v>530</v>
       </c>
-      <c r="I91" s="509" t="s">
-        <v>531</v>
-      </c>
       <c r="J91" s="510" t="s">
+        <v>473</v>
+      </c>
+      <c r="K91" s="510" t="s">
         <v>474</v>
-      </c>
-      <c r="K91" s="510" t="s">
-        <v>475</v>
       </c>
       <c r="L91" s="621"/>
       <c r="M91" s="622"/>
@@ -16376,27 +15705,27 @@
     </row>
     <row r="92" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="501" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B92" s="374"/>
       <c r="C92" s="374"/>
       <c r="D92" s="616" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E92" s="620"/>
       <c r="F92" s="66"/>
       <c r="G92" s="67"/>
       <c r="H92" s="509" t="s">
+        <v>529</v>
+      </c>
+      <c r="I92" s="509" t="s">
         <v>530</v>
       </c>
-      <c r="I92" s="509" t="s">
-        <v>531</v>
-      </c>
       <c r="J92" s="510" t="s">
+        <v>473</v>
+      </c>
+      <c r="K92" s="510" t="s">
         <v>474</v>
-      </c>
-      <c r="K92" s="510" t="s">
-        <v>475</v>
       </c>
       <c r="L92" s="621"/>
       <c r="M92" s="622"/>
@@ -16414,27 +15743,27 @@
     </row>
     <row r="93" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="501" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B93" s="374"/>
       <c r="C93" s="374"/>
       <c r="D93" s="616" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E93" s="620"/>
       <c r="F93" s="66"/>
       <c r="G93" s="67"/>
       <c r="H93" s="509" t="s">
+        <v>529</v>
+      </c>
+      <c r="I93" s="509" t="s">
         <v>530</v>
       </c>
-      <c r="I93" s="509" t="s">
-        <v>531</v>
-      </c>
       <c r="J93" s="510" t="s">
+        <v>473</v>
+      </c>
+      <c r="K93" s="510" t="s">
         <v>474</v>
-      </c>
-      <c r="K93" s="510" t="s">
-        <v>475</v>
       </c>
       <c r="L93" s="621"/>
       <c r="M93" s="622"/>
@@ -16612,27 +15941,27 @@
     </row>
     <row r="99" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="633" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B99" s="374"/>
       <c r="C99" s="374"/>
       <c r="D99" s="634" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E99" s="635"/>
       <c r="F99" s="328"/>
       <c r="G99" s="329"/>
       <c r="H99" s="638" t="s">
+        <v>529</v>
+      </c>
+      <c r="I99" s="638" t="s">
         <v>530</v>
-      </c>
-      <c r="I99" s="638" t="s">
-        <v>531</v>
       </c>
       <c r="J99" s="510" t="s">
         <v>362</v>
       </c>
       <c r="K99" s="510" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L99" s="621"/>
       <c r="M99" s="622"/>
@@ -16650,7 +15979,7 @@
     </row>
     <row r="100" spans="1:18" s="399" customFormat="1" ht="38.25" customHeight="1">
       <c r="A100" s="633" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B100" s="374"/>
       <c r="C100" s="374"/>
@@ -16661,10 +15990,10 @@
       <c r="H100" s="374"/>
       <c r="I100" s="374"/>
       <c r="J100" s="640" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K100" s="510" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L100" s="641"/>
       <c r="M100" s="642"/>
@@ -16676,7 +16005,7 @@
     </row>
     <row r="101" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A101" s="487" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B101" s="382"/>
       <c r="C101" s="382"/>
@@ -16687,13 +16016,13 @@
       <c r="F101" s="117"/>
       <c r="G101" s="118"/>
       <c r="H101" s="611" t="s">
+        <v>529</v>
+      </c>
+      <c r="I101" s="611" t="s">
         <v>530</v>
       </c>
-      <c r="I101" s="611" t="s">
-        <v>531</v>
-      </c>
       <c r="J101" s="508" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K101" s="508"/>
       <c r="L101" s="627"/>
@@ -16706,27 +16035,27 @@
     </row>
     <row r="102" spans="1:18" s="399" customFormat="1" ht="59.25" customHeight="1">
       <c r="A102" s="501" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B102" s="374"/>
       <c r="C102" s="374"/>
       <c r="D102" s="616" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E102" s="620"/>
       <c r="F102" s="66"/>
       <c r="G102" s="67"/>
       <c r="H102" s="509" t="s">
+        <v>529</v>
+      </c>
+      <c r="I102" s="509" t="s">
         <v>530</v>
       </c>
-      <c r="I102" s="509" t="s">
-        <v>531</v>
-      </c>
       <c r="J102" s="510" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K102" s="510" t="s">
-        <v>547</v>
+        <v>648</v>
       </c>
       <c r="L102" s="621"/>
       <c r="M102" s="622"/>
@@ -16744,27 +16073,27 @@
     </row>
     <row r="103" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A103" s="501" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B103" s="374"/>
       <c r="C103" s="374"/>
       <c r="D103" s="616" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E103" s="620"/>
       <c r="F103" s="66"/>
       <c r="G103" s="67"/>
       <c r="H103" s="647" t="s">
+        <v>529</v>
+      </c>
+      <c r="I103" s="647" t="s">
         <v>530</v>
       </c>
-      <c r="I103" s="647" t="s">
-        <v>531</v>
-      </c>
       <c r="J103" s="648" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K103" s="648" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L103" s="410"/>
       <c r="M103" s="411"/>
@@ -16782,24 +16111,24 @@
     </row>
     <row r="104" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A104" s="487" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B104" s="382"/>
       <c r="C104" s="382"/>
       <c r="D104" s="618" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E104" s="637"/>
       <c r="F104" s="117"/>
       <c r="G104" s="118"/>
       <c r="H104" s="611" t="s">
+        <v>529</v>
+      </c>
+      <c r="I104" s="611" t="s">
         <v>530</v>
       </c>
-      <c r="I104" s="611" t="s">
-        <v>531</v>
-      </c>
       <c r="J104" s="508" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K104" s="508"/>
       <c r="L104" s="627"/>
@@ -16844,24 +16173,24 @@
     </row>
     <row r="106" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A106" s="487" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B106" s="382"/>
       <c r="C106" s="382"/>
       <c r="D106" s="649" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E106" s="650"/>
       <c r="F106" s="117"/>
       <c r="G106" s="118"/>
       <c r="H106" s="611" t="s">
+        <v>529</v>
+      </c>
+      <c r="I106" s="611" t="s">
         <v>530</v>
       </c>
-      <c r="I106" s="611" t="s">
-        <v>531</v>
-      </c>
       <c r="J106" s="508" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K106" s="508"/>
       <c r="L106" s="627"/>
@@ -16874,24 +16203,24 @@
     </row>
     <row r="107" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A107" s="487" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B107" s="382"/>
       <c r="C107" s="382"/>
       <c r="D107" s="649" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E107" s="650"/>
       <c r="F107" s="117"/>
       <c r="G107" s="118"/>
       <c r="H107" s="611" t="s">
+        <v>529</v>
+      </c>
+      <c r="I107" s="611" t="s">
         <v>530</v>
       </c>
-      <c r="I107" s="611" t="s">
-        <v>531</v>
-      </c>
       <c r="J107" s="508" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K107" s="508"/>
       <c r="L107" s="627"/>
@@ -16904,27 +16233,27 @@
     </row>
     <row r="108" spans="1:18" s="399" customFormat="1" ht="45" customHeight="1">
       <c r="A108" s="651" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B108" s="374"/>
       <c r="C108" s="374"/>
       <c r="D108" s="652" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E108" s="653"/>
       <c r="F108" s="66"/>
       <c r="G108" s="67"/>
       <c r="H108" s="654" t="s">
+        <v>529</v>
+      </c>
+      <c r="I108" s="654" t="s">
         <v>530</v>
       </c>
-      <c r="I108" s="654" t="s">
-        <v>531</v>
-      </c>
       <c r="J108" s="655" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K108" s="655" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L108" s="656"/>
       <c r="M108" s="657"/>
@@ -17225,7 +16554,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="349" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -17240,7 +16569,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="349" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I6" s="349" t="s">
         <v>331</v>
@@ -17262,7 +16591,7 @@
     </row>
     <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="351" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B8" s="351"/>
       <c r="C8" s="351"/>
@@ -17363,10 +16692,10 @@
         <v>347</v>
       </c>
       <c r="J11" s="401" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K11" s="401" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L11" s="402"/>
       <c r="M11" s="403"/>
@@ -17421,7 +16750,7 @@
         <v>323</v>
       </c>
       <c r="D13" s="673" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E13" s="673" t="s">
         <v>324</v>
@@ -17432,10 +16761,10 @@
         <v>346</v>
       </c>
       <c r="I13" s="683" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J13" s="683" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K13" s="683"/>
       <c r="L13" s="684"/>
@@ -17454,7 +16783,7 @@
       <c r="C14" s="381"/>
       <c r="D14" s="382"/>
       <c r="E14" s="674" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F14" s="155"/>
       <c r="G14" s="156"/>
@@ -17465,7 +16794,7 @@
         <v>356</v>
       </c>
       <c r="J14" s="683" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K14" s="690"/>
       <c r="L14" s="691"/>
@@ -17484,7 +16813,7 @@
       <c r="C15" s="381"/>
       <c r="D15" s="382"/>
       <c r="E15" s="674" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F15" s="155"/>
       <c r="G15" s="156"/>
@@ -17492,10 +16821,10 @@
         <v>346</v>
       </c>
       <c r="I15" s="697" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J15" s="683" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K15" s="697"/>
       <c r="L15" s="698"/>
@@ -17514,7 +16843,7 @@
       <c r="C16" s="381"/>
       <c r="D16" s="382"/>
       <c r="E16" s="674" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F16" s="155"/>
       <c r="G16" s="156"/>
@@ -17522,10 +16851,10 @@
         <v>346</v>
       </c>
       <c r="I16" s="697" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J16" s="697" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K16" s="697"/>
       <c r="L16" s="698"/>
@@ -17573,7 +16902,7 @@
       <c r="B18" s="392"/>
       <c r="C18" s="382"/>
       <c r="D18" s="393" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E18" s="394"/>
       <c r="F18" s="49"/>
@@ -17585,7 +16914,7 @@
         <v>368</v>
       </c>
       <c r="J18" s="470" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K18" s="705"/>
       <c r="L18" s="471"/>
@@ -17747,7 +17076,7 @@
         <v>368</v>
       </c>
       <c r="J23" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K23" s="731"/>
       <c r="L23" s="732"/>
@@ -17766,7 +17095,7 @@
       <c r="C24" s="480"/>
       <c r="D24" s="481"/>
       <c r="E24" s="708" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F24" s="179"/>
       <c r="G24" s="180"/>
@@ -17777,7 +17106,7 @@
         <v>368</v>
       </c>
       <c r="J24" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K24" s="731"/>
       <c r="L24" s="732"/>
@@ -17807,7 +17136,7 @@
         <v>368</v>
       </c>
       <c r="J25" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K25" s="731"/>
       <c r="L25" s="732"/>
@@ -17837,7 +17166,7 @@
         <v>368</v>
       </c>
       <c r="J26" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K26" s="731"/>
       <c r="L26" s="732"/>
@@ -17867,7 +17196,7 @@
         <v>368</v>
       </c>
       <c r="J27" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K27" s="731"/>
       <c r="L27" s="732"/>
@@ -17886,7 +17215,7 @@
       <c r="C28" s="382"/>
       <c r="D28" s="382"/>
       <c r="E28" s="709" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F28" s="189"/>
       <c r="G28" s="190"/>
@@ -17897,7 +17226,7 @@
         <v>356</v>
       </c>
       <c r="J28" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K28" s="739"/>
       <c r="L28" s="740"/>
@@ -17916,7 +17245,7 @@
       <c r="C29" s="382"/>
       <c r="D29" s="482"/>
       <c r="E29" s="482" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F29" s="191"/>
       <c r="G29" s="192"/>
@@ -17927,7 +17256,7 @@
         <v>368</v>
       </c>
       <c r="J29" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K29" s="747"/>
       <c r="L29" s="748"/>
@@ -17959,7 +17288,7 @@
         <v>368</v>
       </c>
       <c r="J30" s="518" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K30" s="747"/>
       <c r="L30" s="748"/>
@@ -17985,13 +17314,13 @@
       <c r="F31" s="191"/>
       <c r="G31" s="192"/>
       <c r="H31" s="755" t="s">
+        <v>458</v>
+      </c>
+      <c r="I31" s="756" t="s">
         <v>459</v>
       </c>
-      <c r="I31" s="756" t="s">
+      <c r="J31" s="526" t="s">
         <v>460</v>
-      </c>
-      <c r="J31" s="526" t="s">
-        <v>461</v>
       </c>
       <c r="K31" s="756"/>
       <c r="L31" s="757"/>
@@ -18010,18 +17339,18 @@
       <c r="C32" s="381"/>
       <c r="D32" s="485"/>
       <c r="E32" s="712" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F32" s="191"/>
       <c r="G32" s="192"/>
       <c r="H32" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I32" s="756" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J32" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K32" s="756"/>
       <c r="L32" s="757"/>
@@ -18045,13 +17374,13 @@
       <c r="F33" s="191"/>
       <c r="G33" s="192"/>
       <c r="H33" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I33" s="756" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J33" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K33" s="756"/>
       <c r="L33" s="757"/>
@@ -18075,13 +17404,13 @@
       <c r="F34" s="191"/>
       <c r="G34" s="192"/>
       <c r="H34" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I34" s="756" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J34" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K34" s="756"/>
       <c r="L34" s="757"/>
@@ -18105,13 +17434,13 @@
       <c r="F35" s="191"/>
       <c r="G35" s="192"/>
       <c r="H35" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I35" s="756" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J35" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K35" s="756"/>
       <c r="L35" s="763"/>
@@ -18135,13 +17464,13 @@
       <c r="F36" s="191"/>
       <c r="G36" s="192"/>
       <c r="H36" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I36" s="756" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J36" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K36" s="756"/>
       <c r="L36" s="763"/>
@@ -18168,10 +17497,10 @@
         <v>346</v>
       </c>
       <c r="I37" s="756" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J37" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K37" s="756"/>
       <c r="L37" s="763"/>
@@ -18198,10 +17527,10 @@
         <v>346</v>
       </c>
       <c r="I38" s="756" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J38" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K38" s="756"/>
       <c r="L38" s="763"/>
@@ -18228,10 +17557,10 @@
         <v>346</v>
       </c>
       <c r="I39" s="756" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J39" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K39" s="756"/>
       <c r="L39" s="763"/>
@@ -18252,18 +17581,18 @@
         <v>403</v>
       </c>
       <c r="E40" s="712" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F40" s="191"/>
       <c r="G40" s="192"/>
       <c r="H40" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I40" s="756" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J40" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K40" s="756"/>
       <c r="L40" s="763"/>
@@ -18287,13 +17616,13 @@
       <c r="F41" s="191"/>
       <c r="G41" s="192"/>
       <c r="H41" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I41" s="756" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J41" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K41" s="756"/>
       <c r="L41" s="763"/>
@@ -18317,13 +17646,13 @@
       <c r="F42" s="191"/>
       <c r="G42" s="192"/>
       <c r="H42" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I42" s="756" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J42" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K42" s="756"/>
       <c r="L42" s="763"/>
@@ -18347,13 +17676,13 @@
       <c r="F43" s="191"/>
       <c r="G43" s="192"/>
       <c r="H43" s="755" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I43" s="756" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J43" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K43" s="756"/>
       <c r="L43" s="763"/>
@@ -18372,7 +17701,7 @@
       <c r="C44" s="381"/>
       <c r="D44" s="485"/>
       <c r="E44" s="489" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F44" s="191"/>
       <c r="G44" s="192"/>
@@ -18383,7 +17712,7 @@
         <v>356</v>
       </c>
       <c r="J44" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K44" s="767"/>
       <c r="L44" s="768"/>
@@ -18409,13 +17738,13 @@
       <c r="F45" s="193"/>
       <c r="G45" s="194"/>
       <c r="H45" s="771" t="s">
+        <v>465</v>
+      </c>
+      <c r="I45" s="772" t="s">
         <v>466</v>
       </c>
-      <c r="I45" s="772" t="s">
+      <c r="J45" s="526" t="s">
         <v>467</v>
-      </c>
-      <c r="J45" s="526" t="s">
-        <v>468</v>
       </c>
       <c r="K45" s="772"/>
       <c r="L45" s="773"/>
@@ -18439,13 +17768,13 @@
       <c r="F46" s="195"/>
       <c r="G46" s="196"/>
       <c r="H46" s="777" t="s">
+        <v>465</v>
+      </c>
+      <c r="I46" s="778" t="s">
         <v>466</v>
       </c>
-      <c r="I46" s="778" t="s">
+      <c r="J46" s="526" t="s">
         <v>467</v>
-      </c>
-      <c r="J46" s="526" t="s">
-        <v>468</v>
       </c>
       <c r="K46" s="778"/>
       <c r="L46" s="779"/>
@@ -18475,7 +17804,7 @@
         <v>368</v>
       </c>
       <c r="J47" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K47" s="784"/>
       <c r="L47" s="785"/>
@@ -18505,7 +17834,7 @@
         <v>368</v>
       </c>
       <c r="J48" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K48" s="790"/>
       <c r="L48" s="791"/>
@@ -18535,7 +17864,7 @@
         <v>368</v>
       </c>
       <c r="J49" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K49" s="796"/>
       <c r="L49" s="797"/>
@@ -18565,7 +17894,7 @@
         <v>368</v>
       </c>
       <c r="J50" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K50" s="802"/>
       <c r="L50" s="803"/>
@@ -18595,7 +17924,7 @@
         <v>368</v>
       </c>
       <c r="J51" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K51" s="808"/>
       <c r="L51" s="809"/>
@@ -18625,7 +17954,7 @@
         <v>368</v>
       </c>
       <c r="J52" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K52" s="814"/>
       <c r="L52" s="815"/>
@@ -18655,7 +17984,7 @@
         <v>368</v>
       </c>
       <c r="J53" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K53" s="820"/>
       <c r="L53" s="821"/>
@@ -18677,24 +18006,24 @@
         <v>428</v>
       </c>
       <c r="D54" s="724" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E54" s="725" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F54" s="145"/>
       <c r="G54" s="146"/>
       <c r="H54" s="825" t="s">
+        <v>468</v>
+      </c>
+      <c r="I54" s="374" t="s">
+        <v>609</v>
+      </c>
+      <c r="J54" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I54" s="374" t="s">
-        <v>429</v>
-      </c>
-      <c r="J54" s="597" t="s">
+      <c r="K54" s="598" t="s">
         <v>470</v>
-      </c>
-      <c r="K54" s="598" t="s">
-        <v>471</v>
       </c>
       <c r="L54" s="599"/>
       <c r="M54" s="600"/>
@@ -18712,27 +18041,27 @@
     </row>
     <row r="55" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A55" s="501" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B55" s="374"/>
       <c r="C55" s="374"/>
       <c r="D55" s="374"/>
       <c r="E55" s="726" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F55" s="147"/>
       <c r="G55" s="148"/>
       <c r="H55" s="827" t="s">
+        <v>468</v>
+      </c>
+      <c r="I55" s="827" t="s">
+        <v>471</v>
+      </c>
+      <c r="J55" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I55" s="827" t="s">
+      <c r="K55" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J55" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K55" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L55" s="410"/>
       <c r="M55" s="411"/>
@@ -18750,27 +18079,27 @@
     </row>
     <row r="56" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A56" s="501" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="374"/>
       <c r="C56" s="374"/>
       <c r="D56" s="374"/>
       <c r="E56" s="726" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F56" s="147"/>
       <c r="G56" s="148"/>
       <c r="H56" s="827" t="s">
+        <v>468</v>
+      </c>
+      <c r="I56" s="827" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I56" s="827" t="s">
+      <c r="K56" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J56" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K56" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L56" s="410"/>
       <c r="M56" s="411"/>
@@ -18788,27 +18117,27 @@
     </row>
     <row r="57" spans="1:18" s="604" customFormat="1" ht="48">
       <c r="A57" s="501" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B57" s="374"/>
       <c r="C57" s="374"/>
       <c r="D57" s="374"/>
       <c r="E57" s="726" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F57" s="147"/>
       <c r="G57" s="148"/>
       <c r="H57" s="827" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I57" s="827" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J57" s="597" t="s">
+        <v>473</v>
+      </c>
+      <c r="K57" s="597" t="s">
         <v>474</v>
-      </c>
-      <c r="K57" s="597" t="s">
-        <v>475</v>
       </c>
       <c r="L57" s="410"/>
       <c r="M57" s="411"/>
@@ -18826,27 +18155,27 @@
     </row>
     <row r="58" spans="1:18" s="604" customFormat="1" ht="36">
       <c r="A58" s="501" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="374"/>
       <c r="C58" s="374"/>
       <c r="D58" s="505"/>
       <c r="E58" s="726" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F58" s="147"/>
       <c r="G58" s="148"/>
       <c r="H58" s="827" t="s">
+        <v>468</v>
+      </c>
+      <c r="I58" s="827" t="s">
+        <v>471</v>
+      </c>
+      <c r="J58" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="827" t="s">
+      <c r="K58" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J58" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K58" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L58" s="410"/>
       <c r="M58" s="411"/>
@@ -18869,21 +18198,21 @@
       <c r="B59" s="382"/>
       <c r="C59" s="382"/>
       <c r="D59" s="506" t="s">
+        <v>438</v>
+      </c>
+      <c r="E59" s="507" t="s">
         <v>439</v>
-      </c>
-      <c r="E59" s="507" t="s">
-        <v>440</v>
       </c>
       <c r="F59" s="109"/>
       <c r="G59" s="110"/>
       <c r="H59" s="605" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I59" s="605" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J59" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K59" s="729"/>
       <c r="L59" s="471"/>
@@ -18896,24 +18225,24 @@
     </row>
     <row r="60" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A60" s="487" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" s="382"/>
       <c r="C60" s="382"/>
       <c r="D60" s="382"/>
       <c r="E60" s="508" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F60" s="109"/>
       <c r="G60" s="110"/>
       <c r="H60" s="605" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I60" s="605" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J60" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K60" s="729"/>
       <c r="L60" s="471"/>
@@ -18926,24 +18255,24 @@
     </row>
     <row r="61" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="487" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" s="382"/>
       <c r="C61" s="382"/>
       <c r="D61" s="482"/>
       <c r="E61" s="508" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F61" s="109"/>
       <c r="G61" s="110"/>
       <c r="H61" s="605" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I61" s="605" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J61" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K61" s="729"/>
       <c r="L61" s="471"/>
@@ -18956,29 +18285,29 @@
     </row>
     <row r="62" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A62" s="501" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" s="374"/>
       <c r="C62" s="374"/>
       <c r="D62" s="727" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="728" t="s">
         <v>446</v>
-      </c>
-      <c r="E62" s="728" t="s">
-        <v>447</v>
       </c>
       <c r="F62" s="343"/>
       <c r="G62" s="344"/>
       <c r="H62" s="825" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I62" s="825" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J62" s="510" t="s">
+        <v>476</v>
+      </c>
+      <c r="K62" s="510" t="s">
         <v>477</v>
-      </c>
-      <c r="K62" s="510" t="s">
-        <v>478</v>
       </c>
       <c r="L62" s="410"/>
       <c r="M62" s="411"/>
@@ -18996,27 +18325,27 @@
     </row>
     <row r="63" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A63" s="501" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B63" s="374"/>
       <c r="C63" s="374"/>
       <c r="D63" s="505"/>
       <c r="E63" s="728" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F63" s="343"/>
       <c r="G63" s="344"/>
       <c r="H63" s="825" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I63" s="825" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J63" s="510" t="s">
+        <v>478</v>
+      </c>
+      <c r="K63" s="510" t="s">
         <v>479</v>
-      </c>
-      <c r="K63" s="510" t="s">
-        <v>480</v>
       </c>
       <c r="L63" s="410"/>
       <c r="M63" s="411"/>
@@ -19034,15 +18363,15 @@
     </row>
     <row r="64" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A64" s="501" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B64" s="374"/>
       <c r="C64" s="374"/>
       <c r="D64" s="727" t="s">
+        <v>450</v>
+      </c>
+      <c r="E64" s="728" t="s">
         <v>451</v>
-      </c>
-      <c r="E64" s="728" t="s">
-        <v>452</v>
       </c>
       <c r="F64" s="145"/>
       <c r="G64" s="146"/>
@@ -19050,13 +18379,13 @@
         <v>346</v>
       </c>
       <c r="I64" s="825" t="s">
+        <v>480</v>
+      </c>
+      <c r="J64" s="728" t="s">
+        <v>473</v>
+      </c>
+      <c r="K64" s="728" t="s">
         <v>481</v>
-      </c>
-      <c r="J64" s="728" t="s">
-        <v>474</v>
-      </c>
-      <c r="K64" s="728" t="s">
-        <v>482</v>
       </c>
       <c r="L64" s="410"/>
       <c r="M64" s="411"/>
@@ -19074,13 +18403,13 @@
     </row>
     <row r="65" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="501" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" s="374"/>
       <c r="C65" s="374"/>
       <c r="D65" s="374"/>
       <c r="E65" s="728" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F65" s="145"/>
       <c r="G65" s="146"/>
@@ -19088,13 +18417,13 @@
         <v>346</v>
       </c>
       <c r="I65" s="825" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J65" s="728" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K65" s="728" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L65" s="410"/>
       <c r="M65" s="411"/>
@@ -19112,13 +18441,13 @@
     </row>
     <row r="66" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="487" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" s="382"/>
       <c r="C66" s="382"/>
       <c r="D66" s="382"/>
       <c r="E66" s="729" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F66" s="212"/>
       <c r="G66" s="213"/>
@@ -19126,10 +18455,10 @@
         <v>346</v>
       </c>
       <c r="I66" s="832" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J66" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K66" s="729"/>
       <c r="L66" s="471"/>
@@ -19174,13 +18503,13 @@
     </row>
     <row r="68" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="487" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B68" s="382"/>
       <c r="C68" s="382"/>
       <c r="D68" s="382"/>
       <c r="E68" s="729" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F68" s="212"/>
       <c r="G68" s="213"/>
@@ -19188,10 +18517,10 @@
         <v>346</v>
       </c>
       <c r="I68" s="832" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J68" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K68" s="729"/>
       <c r="L68" s="471"/>
@@ -19204,13 +18533,13 @@
     </row>
     <row r="69" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69" s="382"/>
       <c r="C69" s="382"/>
       <c r="D69" s="382"/>
       <c r="E69" s="729" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F69" s="212"/>
       <c r="G69" s="213"/>
@@ -19218,10 +18547,10 @@
         <v>346</v>
       </c>
       <c r="I69" s="832" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J69" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K69" s="729"/>
       <c r="L69" s="471"/>
@@ -19234,13 +18563,13 @@
     </row>
     <row r="70" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="487" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B70" s="382"/>
       <c r="C70" s="382"/>
       <c r="D70" s="382"/>
       <c r="E70" s="729" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F70" s="212"/>
       <c r="G70" s="213"/>
@@ -19248,10 +18577,10 @@
         <v>346</v>
       </c>
       <c r="I70" s="832" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J70" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K70" s="729"/>
       <c r="L70" s="471"/>
@@ -19264,13 +18593,13 @@
     </row>
     <row r="71" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="487" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="382"/>
       <c r="C71" s="382"/>
       <c r="D71" s="482"/>
       <c r="E71" s="729" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F71" s="212"/>
       <c r="G71" s="213"/>
@@ -19278,10 +18607,10 @@
         <v>346</v>
       </c>
       <c r="I71" s="832" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J71" s="508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K71" s="729"/>
       <c r="L71" s="471"/>
@@ -19294,12 +18623,12 @@
     </row>
     <row r="72" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="487" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B72" s="382"/>
       <c r="C72" s="382"/>
       <c r="D72" s="382" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E72" s="729" t="s">
         <v>391</v>
@@ -19310,10 +18639,10 @@
         <v>346</v>
       </c>
       <c r="I72" s="613" t="s">
+        <v>507</v>
+      </c>
+      <c r="J72" s="508" t="s">
         <v>508</v>
-      </c>
-      <c r="J72" s="508" t="s">
-        <v>509</v>
       </c>
       <c r="K72" s="729"/>
       <c r="L72" s="471"/>
@@ -19326,15 +18655,15 @@
     </row>
     <row r="73" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="487" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B73" s="382"/>
       <c r="C73" s="382"/>
       <c r="D73" s="833" t="s">
+        <v>495</v>
+      </c>
+      <c r="E73" s="729" t="s">
         <v>496</v>
-      </c>
-      <c r="E73" s="729" t="s">
-        <v>497</v>
       </c>
       <c r="F73" s="212"/>
       <c r="G73" s="213"/>
@@ -19342,10 +18671,10 @@
         <v>346</v>
       </c>
       <c r="I73" s="833" t="s">
+        <v>509</v>
+      </c>
+      <c r="J73" s="508" t="s">
         <v>510</v>
-      </c>
-      <c r="J73" s="508" t="s">
-        <v>511</v>
       </c>
       <c r="K73" s="729"/>
       <c r="L73" s="471"/>
@@ -19358,13 +18687,13 @@
     </row>
     <row r="74" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A74" s="487" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B74" s="382"/>
       <c r="C74" s="382"/>
       <c r="D74" s="382"/>
       <c r="E74" s="729" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F74" s="212"/>
       <c r="G74" s="213"/>
@@ -19372,10 +18701,10 @@
         <v>346</v>
       </c>
       <c r="I74" s="833" t="s">
+        <v>509</v>
+      </c>
+      <c r="J74" s="508" t="s">
         <v>510</v>
-      </c>
-      <c r="J74" s="508" t="s">
-        <v>511</v>
       </c>
       <c r="K74" s="729"/>
       <c r="L74" s="471"/>
@@ -19388,13 +18717,13 @@
     </row>
     <row r="75" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A75" s="487" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B75" s="382"/>
       <c r="C75" s="382"/>
       <c r="D75" s="482"/>
       <c r="E75" s="729" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F75" s="212"/>
       <c r="G75" s="213"/>
@@ -19402,10 +18731,10 @@
         <v>346</v>
       </c>
       <c r="I75" s="833" t="s">
+        <v>509</v>
+      </c>
+      <c r="J75" s="508" t="s">
         <v>510</v>
-      </c>
-      <c r="J75" s="508" t="s">
-        <v>511</v>
       </c>
       <c r="K75" s="729"/>
       <c r="L75" s="471"/>
@@ -19418,15 +18747,15 @@
     </row>
     <row r="76" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="487" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B76" s="382"/>
       <c r="C76" s="382"/>
       <c r="D76" s="833" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E76" s="729" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F76" s="212"/>
       <c r="G76" s="213"/>
@@ -19434,10 +18763,10 @@
         <v>346</v>
       </c>
       <c r="I76" s="833" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J76" s="729" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K76" s="729"/>
       <c r="L76" s="471"/>
@@ -19450,13 +18779,13 @@
     </row>
     <row r="77" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A77" s="487" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B77" s="382"/>
       <c r="C77" s="382"/>
       <c r="D77" s="382"/>
       <c r="E77" s="729" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F77" s="212"/>
       <c r="G77" s="213"/>
@@ -19464,10 +18793,10 @@
         <v>346</v>
       </c>
       <c r="I77" s="833" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J77" s="729" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K77" s="729"/>
       <c r="L77" s="471"/>
@@ -19480,13 +18809,13 @@
     </row>
     <row r="78" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A78" s="487" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B78" s="382"/>
       <c r="C78" s="382"/>
       <c r="D78" s="482"/>
       <c r="E78" s="834" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F78" s="212"/>
       <c r="G78" s="213"/>
@@ -19494,10 +18823,10 @@
         <v>346</v>
       </c>
       <c r="I78" s="833" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J78" s="729" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K78" s="729"/>
       <c r="L78" s="471"/>
@@ -19510,12 +18839,12 @@
     </row>
     <row r="79" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A79" s="487" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B79" s="382"/>
       <c r="C79" s="382"/>
       <c r="D79" s="393" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E79" s="394"/>
       <c r="F79" s="49"/>
@@ -19524,10 +18853,10 @@
         <v>346</v>
       </c>
       <c r="I79" s="833" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J79" s="729" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K79" s="729"/>
       <c r="L79" s="471"/>
@@ -19572,29 +18901,29 @@
     </row>
     <row r="81" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="501" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B81" s="374"/>
       <c r="C81" s="727" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="614" t="s">
         <v>517</v>
-      </c>
-      <c r="D81" s="614" t="s">
-        <v>518</v>
       </c>
       <c r="E81" s="615"/>
       <c r="F81" s="149"/>
       <c r="G81" s="150"/>
       <c r="H81" s="727" t="s">
+        <v>529</v>
+      </c>
+      <c r="I81" s="727" t="s">
         <v>530</v>
       </c>
-      <c r="I81" s="727" t="s">
-        <v>531</v>
-      </c>
       <c r="J81" s="728" t="s">
+        <v>473</v>
+      </c>
+      <c r="K81" s="728" t="s">
         <v>474</v>
-      </c>
-      <c r="K81" s="728" t="s">
-        <v>475</v>
       </c>
       <c r="L81" s="840"/>
       <c r="M81" s="841"/>
@@ -19612,29 +18941,29 @@
     </row>
     <row r="82" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="501" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B82" s="374"/>
       <c r="C82" s="374"/>
       <c r="D82" s="835" t="s">
+        <v>519</v>
+      </c>
+      <c r="E82" s="836" t="s">
         <v>520</v>
-      </c>
-      <c r="E82" s="836" t="s">
-        <v>521</v>
       </c>
       <c r="F82" s="149"/>
       <c r="G82" s="150"/>
       <c r="H82" s="727" t="s">
+        <v>529</v>
+      </c>
+      <c r="I82" s="727" t="s">
         <v>530</v>
       </c>
-      <c r="I82" s="727" t="s">
-        <v>531</v>
-      </c>
       <c r="J82" s="728" t="s">
+        <v>473</v>
+      </c>
+      <c r="K82" s="728" t="s">
         <v>474</v>
-      </c>
-      <c r="K82" s="728" t="s">
-        <v>475</v>
       </c>
       <c r="L82" s="840"/>
       <c r="M82" s="841"/>
@@ -19652,24 +18981,24 @@
     </row>
     <row r="83" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="487" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B83" s="382"/>
       <c r="C83" s="382"/>
       <c r="D83" s="837"/>
       <c r="E83" s="838" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F83" s="219"/>
       <c r="G83" s="220"/>
       <c r="H83" s="833" t="s">
+        <v>529</v>
+      </c>
+      <c r="I83" s="833" t="s">
         <v>530</v>
       </c>
-      <c r="I83" s="833" t="s">
+      <c r="J83" s="729" t="s">
         <v>531</v>
-      </c>
-      <c r="J83" s="729" t="s">
-        <v>532</v>
       </c>
       <c r="K83" s="729"/>
       <c r="L83" s="846"/>
@@ -19682,27 +19011,27 @@
     </row>
     <row r="84" spans="1:18" s="399" customFormat="1" ht="36" customHeight="1">
       <c r="A84" s="501" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B84" s="374"/>
       <c r="C84" s="374"/>
       <c r="D84" s="835" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E84" s="839"/>
       <c r="F84" s="149"/>
       <c r="G84" s="150"/>
       <c r="H84" s="727" t="s">
+        <v>529</v>
+      </c>
+      <c r="I84" s="727" t="s">
         <v>530</v>
       </c>
-      <c r="I84" s="727" t="s">
-        <v>531</v>
-      </c>
       <c r="J84" s="728" t="s">
+        <v>473</v>
+      </c>
+      <c r="K84" s="728" t="s">
         <v>474</v>
-      </c>
-      <c r="K84" s="728" t="s">
-        <v>475</v>
       </c>
       <c r="L84" s="840"/>
       <c r="M84" s="841"/>
@@ -19720,27 +19049,27 @@
     </row>
     <row r="85" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="501" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B85" s="374"/>
       <c r="C85" s="374"/>
       <c r="D85" s="835" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E85" s="839"/>
       <c r="F85" s="149"/>
       <c r="G85" s="150"/>
       <c r="H85" s="727" t="s">
+        <v>529</v>
+      </c>
+      <c r="I85" s="727" t="s">
         <v>530</v>
       </c>
-      <c r="I85" s="727" t="s">
-        <v>531</v>
-      </c>
       <c r="J85" s="728" t="s">
+        <v>473</v>
+      </c>
+      <c r="K85" s="728" t="s">
         <v>474</v>
-      </c>
-      <c r="K85" s="728" t="s">
-        <v>475</v>
       </c>
       <c r="L85" s="840"/>
       <c r="M85" s="841"/>
@@ -19758,27 +19087,27 @@
     </row>
     <row r="86" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="501" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B86" s="374"/>
       <c r="C86" s="374"/>
       <c r="D86" s="835" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E86" s="839"/>
       <c r="F86" s="149"/>
       <c r="G86" s="150"/>
       <c r="H86" s="727" t="s">
+        <v>529</v>
+      </c>
+      <c r="I86" s="727" t="s">
         <v>530</v>
       </c>
-      <c r="I86" s="727" t="s">
-        <v>531</v>
-      </c>
       <c r="J86" s="728" t="s">
+        <v>473</v>
+      </c>
+      <c r="K86" s="728" t="s">
         <v>474</v>
-      </c>
-      <c r="K86" s="728" t="s">
-        <v>475</v>
       </c>
       <c r="L86" s="840"/>
       <c r="M86" s="841"/>
@@ -19956,27 +19285,27 @@
     </row>
     <row r="92" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="501" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B92" s="374"/>
       <c r="C92" s="374"/>
       <c r="D92" s="835" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E92" s="839"/>
       <c r="F92" s="149"/>
       <c r="G92" s="150"/>
       <c r="H92" s="727" t="s">
+        <v>529</v>
+      </c>
+      <c r="I92" s="727" t="s">
         <v>530</v>
       </c>
-      <c r="I92" s="727" t="s">
-        <v>531</v>
-      </c>
       <c r="J92" s="728" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K92" s="728" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L92" s="840"/>
       <c r="M92" s="841"/>
@@ -19994,7 +19323,7 @@
     </row>
     <row r="93" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="487" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B93" s="382"/>
       <c r="C93" s="382"/>
@@ -20005,13 +19334,13 @@
       <c r="F93" s="219"/>
       <c r="G93" s="220"/>
       <c r="H93" s="833" t="s">
+        <v>529</v>
+      </c>
+      <c r="I93" s="833" t="s">
         <v>530</v>
       </c>
-      <c r="I93" s="833" t="s">
-        <v>531</v>
-      </c>
       <c r="J93" s="508" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K93" s="729"/>
       <c r="L93" s="846"/>
@@ -20024,27 +19353,27 @@
     </row>
     <row r="94" spans="1:18" s="399" customFormat="1" ht="61.5" customHeight="1">
       <c r="A94" s="501" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B94" s="374"/>
       <c r="C94" s="374"/>
       <c r="D94" s="835" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E94" s="839"/>
       <c r="F94" s="341"/>
       <c r="G94" s="342"/>
       <c r="H94" s="727" t="s">
+        <v>529</v>
+      </c>
+      <c r="I94" s="727" t="s">
         <v>530</v>
       </c>
-      <c r="I94" s="727" t="s">
-        <v>531</v>
-      </c>
       <c r="J94" s="510" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K94" s="510" t="s">
-        <v>547</v>
+        <v>648</v>
       </c>
       <c r="L94" s="840"/>
       <c r="M94" s="841"/>
@@ -20062,24 +19391,24 @@
     </row>
     <row r="95" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="487" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B95" s="382"/>
       <c r="C95" s="382"/>
       <c r="D95" s="837" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E95" s="852"/>
       <c r="F95" s="219"/>
       <c r="G95" s="220"/>
       <c r="H95" s="507" t="s">
+        <v>529</v>
+      </c>
+      <c r="I95" s="507" t="s">
         <v>530</v>
       </c>
-      <c r="I95" s="507" t="s">
-        <v>531</v>
-      </c>
       <c r="J95" s="854" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K95" s="854"/>
       <c r="L95" s="471"/>
@@ -20092,24 +19421,24 @@
     </row>
     <row r="96" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="487" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B96" s="382"/>
       <c r="C96" s="382"/>
       <c r="D96" s="837" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E96" s="852"/>
       <c r="F96" s="219"/>
       <c r="G96" s="220"/>
       <c r="H96" s="833" t="s">
+        <v>529</v>
+      </c>
+      <c r="I96" s="833" t="s">
         <v>530</v>
       </c>
-      <c r="I96" s="833" t="s">
-        <v>531</v>
-      </c>
       <c r="J96" s="729" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K96" s="729"/>
       <c r="L96" s="846"/>
@@ -20154,24 +19483,24 @@
     </row>
     <row r="98" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="487" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B98" s="382"/>
       <c r="C98" s="382"/>
       <c r="D98" s="649" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E98" s="650"/>
       <c r="F98" s="212"/>
       <c r="G98" s="213"/>
       <c r="H98" s="855" t="s">
+        <v>529</v>
+      </c>
+      <c r="I98" s="855" t="s">
         <v>530</v>
       </c>
-      <c r="I98" s="855" t="s">
-        <v>531</v>
-      </c>
       <c r="J98" s="508" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K98" s="856"/>
       <c r="L98" s="857"/>
@@ -20184,24 +19513,24 @@
     </row>
     <row r="99" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="487" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B99" s="382"/>
       <c r="C99" s="382"/>
       <c r="D99" s="649" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E99" s="650"/>
       <c r="F99" s="212"/>
       <c r="G99" s="213"/>
       <c r="H99" s="855" t="s">
+        <v>529</v>
+      </c>
+      <c r="I99" s="855" t="s">
         <v>530</v>
       </c>
-      <c r="I99" s="855" t="s">
-        <v>531</v>
-      </c>
       <c r="J99" s="508" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K99" s="856"/>
       <c r="L99" s="857"/>
@@ -20214,27 +19543,27 @@
     </row>
     <row r="100" spans="1:18" s="399" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="651" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B100" s="374"/>
       <c r="C100" s="374"/>
       <c r="D100" s="652" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E100" s="653"/>
       <c r="F100" s="145"/>
       <c r="G100" s="146"/>
       <c r="H100" s="654" t="s">
+        <v>529</v>
+      </c>
+      <c r="I100" s="654" t="s">
         <v>530</v>
       </c>
-      <c r="I100" s="654" t="s">
-        <v>531</v>
-      </c>
       <c r="J100" s="862" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K100" s="862" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L100" s="656"/>
       <c r="M100" s="657"/>
@@ -20509,7 +19838,7 @@
   </sheetPr>
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
@@ -20535,7 +19864,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="349" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -20550,7 +19879,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="349" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I6" s="349" t="s">
         <v>331</v>
@@ -20572,7 +19901,7 @@
     </row>
     <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="351" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B8" s="351"/>
       <c r="C8" s="351"/>
@@ -20673,10 +20002,10 @@
         <v>347</v>
       </c>
       <c r="J11" s="401" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K11" s="401" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L11" s="410"/>
       <c r="M11" s="411"/>
@@ -20711,10 +20040,10 @@
         <v>279</v>
       </c>
       <c r="J12" s="880" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K12" s="879" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L12" s="410"/>
       <c r="M12" s="411"/>
@@ -20739,7 +20068,7 @@
         <v>323</v>
       </c>
       <c r="D13" s="871" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E13" s="871" t="s">
         <v>324</v>
@@ -20750,10 +20079,10 @@
         <v>346</v>
       </c>
       <c r="I13" s="683" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J13" s="683" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K13" s="683"/>
       <c r="L13" s="684"/>
@@ -20772,7 +20101,7 @@
       <c r="C14" s="381"/>
       <c r="D14" s="382"/>
       <c r="E14" s="872" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F14" s="239"/>
       <c r="G14" s="240"/>
@@ -20783,7 +20112,7 @@
         <v>356</v>
       </c>
       <c r="J14" s="683" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K14" s="690"/>
       <c r="L14" s="691"/>
@@ -20802,7 +20131,7 @@
       <c r="C15" s="381"/>
       <c r="D15" s="382"/>
       <c r="E15" s="872" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F15" s="239"/>
       <c r="G15" s="240"/>
@@ -20810,10 +20139,10 @@
         <v>346</v>
       </c>
       <c r="I15" s="884" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J15" s="683" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K15" s="884"/>
       <c r="L15" s="885"/>
@@ -20832,7 +20161,7 @@
       <c r="C16" s="381"/>
       <c r="D16" s="382"/>
       <c r="E16" s="872" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F16" s="239"/>
       <c r="G16" s="240"/>
@@ -20840,10 +20169,10 @@
         <v>346</v>
       </c>
       <c r="I16" s="884" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J16" s="683" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K16" s="884"/>
       <c r="L16" s="885"/>
@@ -20873,7 +20202,7 @@
         <v>361</v>
       </c>
       <c r="J17" s="704" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K17" s="891"/>
       <c r="L17" s="471"/>
@@ -20891,7 +20220,7 @@
       <c r="B18" s="357"/>
       <c r="C18" s="374"/>
       <c r="D18" s="669" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E18" s="874"/>
       <c r="F18" s="326"/>
@@ -20903,10 +20232,10 @@
         <v>368</v>
       </c>
       <c r="J18" s="895" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K18" s="894" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L18" s="410"/>
       <c r="M18" s="411"/>
@@ -21081,7 +20410,7 @@
         <v>368</v>
       </c>
       <c r="J23" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K23" s="923"/>
       <c r="L23" s="924"/>
@@ -21100,7 +20429,7 @@
       <c r="C24" s="480"/>
       <c r="D24" s="481"/>
       <c r="E24" s="899" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F24" s="239"/>
       <c r="G24" s="240"/>
@@ -21111,7 +20440,7 @@
         <v>368</v>
       </c>
       <c r="J24" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K24" s="923"/>
       <c r="L24" s="924"/>
@@ -21141,7 +20470,7 @@
         <v>368</v>
       </c>
       <c r="J25" s="420" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K25" s="923"/>
       <c r="L25" s="924"/>
@@ -21171,7 +20500,7 @@
         <v>368</v>
       </c>
       <c r="J26" s="518" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K26" s="923"/>
       <c r="L26" s="924"/>
@@ -21201,7 +20530,7 @@
         <v>368</v>
       </c>
       <c r="J27" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K27" s="923"/>
       <c r="L27" s="924"/>
@@ -21220,7 +20549,7 @@
       <c r="C28" s="382"/>
       <c r="D28" s="382"/>
       <c r="E28" s="900" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F28" s="207"/>
       <c r="G28" s="208"/>
@@ -21231,7 +20560,7 @@
         <v>356</v>
       </c>
       <c r="J28" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K28" s="930"/>
       <c r="L28" s="931"/>
@@ -21250,7 +20579,7 @@
       <c r="C29" s="382"/>
       <c r="D29" s="482"/>
       <c r="E29" s="482" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F29" s="253"/>
       <c r="G29" s="254"/>
@@ -21261,7 +20590,7 @@
         <v>368</v>
       </c>
       <c r="J29" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K29" s="937"/>
       <c r="L29" s="938"/>
@@ -21293,7 +20622,7 @@
         <v>368</v>
       </c>
       <c r="J30" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K30" s="937"/>
       <c r="L30" s="938"/>
@@ -21319,13 +20648,13 @@
       <c r="F31" s="253"/>
       <c r="G31" s="254"/>
       <c r="H31" s="945" t="s">
+        <v>458</v>
+      </c>
+      <c r="I31" s="946" t="s">
         <v>459</v>
       </c>
-      <c r="I31" s="946" t="s">
+      <c r="J31" s="526" t="s">
         <v>460</v>
-      </c>
-      <c r="J31" s="526" t="s">
-        <v>461</v>
       </c>
       <c r="K31" s="946"/>
       <c r="L31" s="947"/>
@@ -21344,18 +20673,18 @@
       <c r="C32" s="381"/>
       <c r="D32" s="485"/>
       <c r="E32" s="902" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F32" s="253"/>
       <c r="G32" s="254"/>
       <c r="H32" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I32" s="946" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J32" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K32" s="946"/>
       <c r="L32" s="947"/>
@@ -21379,13 +20708,13 @@
       <c r="F33" s="253"/>
       <c r="G33" s="254"/>
       <c r="H33" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I33" s="946" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J33" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K33" s="946"/>
       <c r="L33" s="947"/>
@@ -21409,13 +20738,13 @@
       <c r="F34" s="253"/>
       <c r="G34" s="254"/>
       <c r="H34" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I34" s="946" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J34" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K34" s="946"/>
       <c r="L34" s="947"/>
@@ -21439,13 +20768,13 @@
       <c r="F35" s="253"/>
       <c r="G35" s="254"/>
       <c r="H35" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I35" s="946" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J35" s="526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K35" s="946"/>
       <c r="L35" s="953"/>
@@ -21469,13 +20798,13 @@
       <c r="F36" s="253"/>
       <c r="G36" s="254"/>
       <c r="H36" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I36" s="946" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J36" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K36" s="946"/>
       <c r="L36" s="953"/>
@@ -21502,10 +20831,10 @@
         <v>346</v>
       </c>
       <c r="I37" s="946" t="s">
+        <v>462</v>
+      </c>
+      <c r="J37" s="526" t="s">
         <v>463</v>
-      </c>
-      <c r="J37" s="526" t="s">
-        <v>464</v>
       </c>
       <c r="K37" s="946"/>
       <c r="L37" s="953"/>
@@ -21532,10 +20861,10 @@
         <v>346</v>
       </c>
       <c r="I38" s="946" t="s">
+        <v>462</v>
+      </c>
+      <c r="J38" s="526" t="s">
         <v>463</v>
-      </c>
-      <c r="J38" s="526" t="s">
-        <v>464</v>
       </c>
       <c r="K38" s="946"/>
       <c r="L38" s="953"/>
@@ -21562,10 +20891,10 @@
         <v>346</v>
       </c>
       <c r="I39" s="946" t="s">
+        <v>462</v>
+      </c>
+      <c r="J39" s="526" t="s">
         <v>463</v>
-      </c>
-      <c r="J39" s="526" t="s">
-        <v>464</v>
       </c>
       <c r="K39" s="946"/>
       <c r="L39" s="953"/>
@@ -21586,18 +20915,18 @@
         <v>403</v>
       </c>
       <c r="E40" s="902" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F40" s="253"/>
       <c r="G40" s="254"/>
       <c r="H40" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I40" s="946" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J40" s="526" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K40" s="946"/>
       <c r="L40" s="953"/>
@@ -21621,13 +20950,13 @@
       <c r="F41" s="253"/>
       <c r="G41" s="254"/>
       <c r="H41" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I41" s="946" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J41" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K41" s="946"/>
       <c r="L41" s="953"/>
@@ -21651,13 +20980,13 @@
       <c r="F42" s="253"/>
       <c r="G42" s="254"/>
       <c r="H42" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I42" s="946" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J42" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K42" s="946"/>
       <c r="L42" s="953"/>
@@ -21681,13 +21010,13 @@
       <c r="F43" s="253"/>
       <c r="G43" s="254"/>
       <c r="H43" s="945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I43" s="946" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J43" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K43" s="946"/>
       <c r="L43" s="953"/>
@@ -21706,7 +21035,7 @@
       <c r="C44" s="381"/>
       <c r="D44" s="485"/>
       <c r="E44" s="489" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F44" s="253"/>
       <c r="G44" s="254"/>
@@ -21717,7 +21046,7 @@
         <v>356</v>
       </c>
       <c r="J44" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K44" s="957"/>
       <c r="L44" s="958"/>
@@ -21743,13 +21072,13 @@
       <c r="F45" s="255"/>
       <c r="G45" s="256"/>
       <c r="H45" s="961" t="s">
+        <v>465</v>
+      </c>
+      <c r="I45" s="962" t="s">
         <v>466</v>
       </c>
-      <c r="I45" s="962" t="s">
+      <c r="J45" s="526" t="s">
         <v>467</v>
-      </c>
-      <c r="J45" s="526" t="s">
-        <v>468</v>
       </c>
       <c r="K45" s="962"/>
       <c r="L45" s="963"/>
@@ -21773,13 +21102,13 @@
       <c r="F46" s="257"/>
       <c r="G46" s="258"/>
       <c r="H46" s="967" t="s">
+        <v>465</v>
+      </c>
+      <c r="I46" s="968" t="s">
         <v>466</v>
       </c>
-      <c r="I46" s="968" t="s">
+      <c r="J46" s="526" t="s">
         <v>467</v>
-      </c>
-      <c r="J46" s="526" t="s">
-        <v>468</v>
       </c>
       <c r="K46" s="968"/>
       <c r="L46" s="969"/>
@@ -21809,7 +21138,7 @@
         <v>368</v>
       </c>
       <c r="J47" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K47" s="974"/>
       <c r="L47" s="975"/>
@@ -21839,7 +21168,7 @@
         <v>368</v>
       </c>
       <c r="J48" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K48" s="980"/>
       <c r="L48" s="981"/>
@@ -21869,7 +21198,7 @@
         <v>368</v>
       </c>
       <c r="J49" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K49" s="986"/>
       <c r="L49" s="987"/>
@@ -21899,7 +21228,7 @@
         <v>368</v>
       </c>
       <c r="J50" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K50" s="992"/>
       <c r="L50" s="993"/>
@@ -21929,7 +21258,7 @@
         <v>368</v>
       </c>
       <c r="J51" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K51" s="998"/>
       <c r="L51" s="999"/>
@@ -21959,7 +21288,7 @@
         <v>368</v>
       </c>
       <c r="J52" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K52" s="1004"/>
       <c r="L52" s="1005"/>
@@ -21989,7 +21318,7 @@
         <v>368</v>
       </c>
       <c r="J53" s="526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K53" s="1010"/>
       <c r="L53" s="1011"/>
@@ -22011,24 +21340,24 @@
         <v>428</v>
       </c>
       <c r="D54" s="914" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E54" s="915" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F54" s="233"/>
       <c r="G54" s="234"/>
       <c r="H54" s="1015" t="s">
+        <v>468</v>
+      </c>
+      <c r="I54" s="374" t="s">
+        <v>609</v>
+      </c>
+      <c r="J54" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I54" s="374" t="s">
-        <v>429</v>
-      </c>
-      <c r="J54" s="597" t="s">
+      <c r="K54" s="598" t="s">
         <v>470</v>
-      </c>
-      <c r="K54" s="598" t="s">
-        <v>471</v>
       </c>
       <c r="L54" s="599"/>
       <c r="M54" s="600"/>
@@ -22046,27 +21375,27 @@
     </row>
     <row r="55" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A55" s="501" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B55" s="374"/>
       <c r="C55" s="374"/>
       <c r="D55" s="374"/>
       <c r="E55" s="916" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F55" s="235"/>
       <c r="G55" s="236"/>
       <c r="H55" s="1016" t="s">
+        <v>468</v>
+      </c>
+      <c r="I55" s="1016" t="s">
+        <v>471</v>
+      </c>
+      <c r="J55" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I55" s="1016" t="s">
+      <c r="K55" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J55" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K55" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L55" s="410"/>
       <c r="M55" s="411"/>
@@ -22084,27 +21413,27 @@
     </row>
     <row r="56" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A56" s="501" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="374"/>
       <c r="C56" s="374"/>
       <c r="D56" s="374"/>
       <c r="E56" s="916" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F56" s="235"/>
       <c r="G56" s="236"/>
       <c r="H56" s="1016" t="s">
+        <v>468</v>
+      </c>
+      <c r="I56" s="1016" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I56" s="1016" t="s">
+      <c r="K56" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J56" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K56" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L56" s="410"/>
       <c r="M56" s="411"/>
@@ -22122,27 +21451,27 @@
     </row>
     <row r="57" spans="1:18" s="604" customFormat="1" ht="48">
       <c r="A57" s="501" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B57" s="374"/>
       <c r="C57" s="374"/>
       <c r="D57" s="374"/>
       <c r="E57" s="916" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F57" s="235"/>
       <c r="G57" s="236"/>
       <c r="H57" s="1016" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I57" s="1016" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J57" s="597" t="s">
+        <v>473</v>
+      </c>
+      <c r="K57" s="597" t="s">
         <v>474</v>
-      </c>
-      <c r="K57" s="597" t="s">
-        <v>475</v>
       </c>
       <c r="L57" s="410"/>
       <c r="M57" s="411"/>
@@ -22160,27 +21489,27 @@
     </row>
     <row r="58" spans="1:18" s="604" customFormat="1" ht="36">
       <c r="A58" s="501" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="374"/>
       <c r="C58" s="374"/>
       <c r="D58" s="505"/>
       <c r="E58" s="916" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F58" s="235"/>
       <c r="G58" s="236"/>
       <c r="H58" s="1016" t="s">
+        <v>468</v>
+      </c>
+      <c r="I58" s="1016" t="s">
+        <v>471</v>
+      </c>
+      <c r="J58" s="597" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="1016" t="s">
+      <c r="K58" s="598" t="s">
         <v>472</v>
-      </c>
-      <c r="J58" s="597" t="s">
-        <v>470</v>
-      </c>
-      <c r="K58" s="598" t="s">
-        <v>473</v>
       </c>
       <c r="L58" s="410"/>
       <c r="M58" s="411"/>
@@ -22203,21 +21532,21 @@
       <c r="B59" s="382"/>
       <c r="C59" s="382"/>
       <c r="D59" s="917" t="s">
+        <v>438</v>
+      </c>
+      <c r="E59" s="507" t="s">
         <v>439</v>
-      </c>
-      <c r="E59" s="507" t="s">
-        <v>440</v>
       </c>
       <c r="F59" s="273"/>
       <c r="G59" s="274"/>
       <c r="H59" s="1018" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I59" s="1018" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J59" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K59" s="729"/>
       <c r="L59" s="471"/>
@@ -22230,24 +21559,24 @@
     </row>
     <row r="60" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A60" s="487" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" s="382"/>
       <c r="C60" s="382"/>
       <c r="D60" s="382"/>
       <c r="E60" s="918" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F60" s="273"/>
       <c r="G60" s="274"/>
       <c r="H60" s="1018" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I60" s="1018" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J60" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K60" s="729"/>
       <c r="L60" s="471"/>
@@ -22260,24 +21589,24 @@
     </row>
     <row r="61" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="487" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" s="382"/>
       <c r="C61" s="382"/>
       <c r="D61" s="482"/>
       <c r="E61" s="918" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F61" s="273"/>
       <c r="G61" s="274"/>
       <c r="H61" s="1018" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I61" s="1018" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J61" s="508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K61" s="729"/>
       <c r="L61" s="471"/>
@@ -22290,29 +21619,29 @@
     </row>
     <row r="62" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A62" s="501" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" s="374"/>
       <c r="C62" s="374"/>
       <c r="D62" s="919" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="920" t="s">
         <v>446</v>
-      </c>
-      <c r="E62" s="920" t="s">
-        <v>447</v>
       </c>
       <c r="F62" s="347"/>
       <c r="G62" s="348"/>
       <c r="H62" s="1015" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I62" s="1015" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J62" s="510" t="s">
+        <v>476</v>
+      </c>
+      <c r="K62" s="510" t="s">
         <v>477</v>
-      </c>
-      <c r="K62" s="510" t="s">
-        <v>478</v>
       </c>
       <c r="L62" s="410"/>
       <c r="M62" s="411"/>
@@ -22330,27 +21659,27 @@
     </row>
     <row r="63" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A63" s="501" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B63" s="374"/>
       <c r="C63" s="374"/>
       <c r="D63" s="505"/>
       <c r="E63" s="920" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F63" s="347"/>
       <c r="G63" s="348"/>
       <c r="H63" s="1015" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I63" s="1015" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="J63" s="510" t="s">
+        <v>478</v>
+      </c>
+      <c r="K63" s="510" t="s">
         <v>479</v>
-      </c>
-      <c r="K63" s="510" t="s">
-        <v>480</v>
       </c>
       <c r="L63" s="410"/>
       <c r="M63" s="411"/>
@@ -22368,15 +21697,15 @@
     </row>
     <row r="64" spans="1:18" s="399" customFormat="1" ht="36">
       <c r="A64" s="487" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B64" s="382"/>
       <c r="C64" s="382"/>
       <c r="D64" s="921" t="s">
+        <v>450</v>
+      </c>
+      <c r="E64" s="918" t="s">
         <v>451</v>
-      </c>
-      <c r="E64" s="918" t="s">
-        <v>452</v>
       </c>
       <c r="F64" s="273"/>
       <c r="G64" s="274"/>
@@ -22384,10 +21713,10 @@
         <v>346</v>
       </c>
       <c r="I64" s="1018" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J64" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K64" s="729"/>
       <c r="L64" s="471"/>
@@ -22400,13 +21729,13 @@
     </row>
     <row r="65" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="487" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" s="382"/>
       <c r="C65" s="382"/>
       <c r="D65" s="382"/>
       <c r="E65" s="918" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F65" s="273"/>
       <c r="G65" s="274"/>
@@ -22414,10 +21743,10 @@
         <v>346</v>
       </c>
       <c r="I65" s="1018" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J65" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K65" s="729"/>
       <c r="L65" s="471"/>
@@ -22430,13 +21759,13 @@
     </row>
     <row r="66" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="487" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" s="382"/>
       <c r="C66" s="382"/>
       <c r="D66" s="382"/>
       <c r="E66" s="918" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F66" s="273"/>
       <c r="G66" s="274"/>
@@ -22444,10 +21773,10 @@
         <v>346</v>
       </c>
       <c r="I66" s="1018" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J66" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K66" s="729"/>
       <c r="L66" s="471"/>
@@ -22492,13 +21821,13 @@
     </row>
     <row r="68" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="487" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B68" s="382"/>
       <c r="C68" s="382"/>
       <c r="D68" s="382"/>
       <c r="E68" s="918" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F68" s="273"/>
       <c r="G68" s="274"/>
@@ -22506,10 +21835,10 @@
         <v>346</v>
       </c>
       <c r="I68" s="1018" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J68" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K68" s="729"/>
       <c r="L68" s="471"/>
@@ -22522,13 +21851,13 @@
     </row>
     <row r="69" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69" s="382"/>
       <c r="C69" s="382"/>
       <c r="D69" s="382"/>
       <c r="E69" s="918" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F69" s="273"/>
       <c r="G69" s="274"/>
@@ -22536,10 +21865,10 @@
         <v>346</v>
       </c>
       <c r="I69" s="1018" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J69" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K69" s="729"/>
       <c r="L69" s="471"/>
@@ -22552,13 +21881,13 @@
     </row>
     <row r="70" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="487" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B70" s="382"/>
       <c r="C70" s="382"/>
       <c r="D70" s="382"/>
       <c r="E70" s="918" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F70" s="273"/>
       <c r="G70" s="274"/>
@@ -22566,10 +21895,10 @@
         <v>346</v>
       </c>
       <c r="I70" s="1018" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J70" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K70" s="729"/>
       <c r="L70" s="471"/>
@@ -22582,13 +21911,13 @@
     </row>
     <row r="71" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="487" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="382"/>
       <c r="C71" s="382"/>
       <c r="D71" s="482"/>
       <c r="E71" s="918" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F71" s="273"/>
       <c r="G71" s="274"/>
@@ -22596,10 +21925,10 @@
         <v>346</v>
       </c>
       <c r="I71" s="1018" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J71" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K71" s="729"/>
       <c r="L71" s="471"/>
@@ -22612,12 +21941,12 @@
     </row>
     <row r="72" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="487" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B72" s="382"/>
       <c r="C72" s="382"/>
       <c r="D72" s="382" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E72" s="918" t="s">
         <v>391</v>
@@ -22628,10 +21957,10 @@
         <v>346</v>
       </c>
       <c r="I72" s="613" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J72" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K72" s="729"/>
       <c r="L72" s="471"/>
@@ -22644,15 +21973,15 @@
     </row>
     <row r="73" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="487" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B73" s="382"/>
       <c r="C73" s="382"/>
       <c r="D73" s="921" t="s">
+        <v>495</v>
+      </c>
+      <c r="E73" s="918" t="s">
         <v>496</v>
-      </c>
-      <c r="E73" s="918" t="s">
-        <v>497</v>
       </c>
       <c r="F73" s="273"/>
       <c r="G73" s="274"/>
@@ -22660,10 +21989,10 @@
         <v>346</v>
       </c>
       <c r="I73" s="921" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J73" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K73" s="729"/>
       <c r="L73" s="471"/>
@@ -22676,13 +22005,13 @@
     </row>
     <row r="74" spans="1:18" s="399" customFormat="1">
       <c r="A74" s="487" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B74" s="382"/>
       <c r="C74" s="382"/>
       <c r="D74" s="382"/>
       <c r="E74" s="918" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F74" s="273"/>
       <c r="G74" s="274"/>
@@ -22690,10 +22019,10 @@
         <v>346</v>
       </c>
       <c r="I74" s="921" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J74" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K74" s="729"/>
       <c r="L74" s="471"/>
@@ -22706,13 +22035,13 @@
     </row>
     <row r="75" spans="1:18" s="399" customFormat="1">
       <c r="A75" s="487" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B75" s="382"/>
       <c r="C75" s="382"/>
       <c r="D75" s="482"/>
       <c r="E75" s="918" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F75" s="273"/>
       <c r="G75" s="274"/>
@@ -22720,10 +22049,10 @@
         <v>346</v>
       </c>
       <c r="I75" s="921" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J75" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K75" s="729"/>
       <c r="L75" s="471"/>
@@ -22736,15 +22065,15 @@
     </row>
     <row r="76" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="487" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B76" s="382"/>
       <c r="C76" s="382"/>
       <c r="D76" s="921" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E76" s="918" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F76" s="273"/>
       <c r="G76" s="274"/>
@@ -22752,10 +22081,10 @@
         <v>346</v>
       </c>
       <c r="I76" s="921" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J76" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K76" s="729"/>
       <c r="L76" s="471"/>
@@ -22768,13 +22097,13 @@
     </row>
     <row r="77" spans="1:18" s="399" customFormat="1">
       <c r="A77" s="487" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B77" s="382"/>
       <c r="C77" s="382"/>
       <c r="D77" s="382"/>
       <c r="E77" s="918" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F77" s="273"/>
       <c r="G77" s="274"/>
@@ -22782,10 +22111,10 @@
         <v>346</v>
       </c>
       <c r="I77" s="921" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J77" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K77" s="729"/>
       <c r="L77" s="471"/>
@@ -22798,13 +22127,13 @@
     </row>
     <row r="78" spans="1:18" s="399" customFormat="1">
       <c r="A78" s="487" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B78" s="382"/>
       <c r="C78" s="382"/>
       <c r="D78" s="482"/>
       <c r="E78" s="1021" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F78" s="273"/>
       <c r="G78" s="274"/>
@@ -22812,10 +22141,10 @@
         <v>346</v>
       </c>
       <c r="I78" s="921" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J78" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K78" s="729"/>
       <c r="L78" s="471"/>
@@ -22828,12 +22157,12 @@
     </row>
     <row r="79" spans="1:18" s="399" customFormat="1" ht="24">
       <c r="A79" s="487" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B79" s="382"/>
       <c r="C79" s="382"/>
       <c r="D79" s="393" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E79" s="394"/>
       <c r="F79" s="49"/>
@@ -22842,10 +22171,10 @@
         <v>346</v>
       </c>
       <c r="I79" s="921" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J79" s="729" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K79" s="918"/>
       <c r="L79" s="471"/>
@@ -22890,29 +22219,29 @@
     </row>
     <row r="81" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A81" s="501" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B81" s="374"/>
       <c r="C81" s="919" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="614" t="s">
         <v>517</v>
-      </c>
-      <c r="D81" s="614" t="s">
-        <v>518</v>
       </c>
       <c r="E81" s="615"/>
       <c r="F81" s="237"/>
       <c r="G81" s="238"/>
       <c r="H81" s="919" t="s">
+        <v>529</v>
+      </c>
+      <c r="I81" s="919" t="s">
         <v>530</v>
       </c>
-      <c r="I81" s="919" t="s">
-        <v>531</v>
-      </c>
       <c r="J81" s="920" t="s">
+        <v>473</v>
+      </c>
+      <c r="K81" s="920" t="s">
         <v>474</v>
-      </c>
-      <c r="K81" s="920" t="s">
-        <v>475</v>
       </c>
       <c r="L81" s="1027"/>
       <c r="M81" s="1028"/>
@@ -22930,29 +22259,29 @@
     </row>
     <row r="82" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A82" s="501" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B82" s="374"/>
       <c r="C82" s="374"/>
       <c r="D82" s="1022" t="s">
+        <v>519</v>
+      </c>
+      <c r="E82" s="1023" t="s">
         <v>520</v>
-      </c>
-      <c r="E82" s="1023" t="s">
-        <v>521</v>
       </c>
       <c r="F82" s="237"/>
       <c r="G82" s="238"/>
       <c r="H82" s="919" t="s">
+        <v>529</v>
+      </c>
+      <c r="I82" s="919" t="s">
         <v>530</v>
       </c>
-      <c r="I82" s="919" t="s">
-        <v>531</v>
-      </c>
       <c r="J82" s="920" t="s">
+        <v>473</v>
+      </c>
+      <c r="K82" s="920" t="s">
         <v>474</v>
-      </c>
-      <c r="K82" s="920" t="s">
-        <v>475</v>
       </c>
       <c r="L82" s="1027"/>
       <c r="M82" s="1028"/>
@@ -22970,24 +22299,24 @@
     </row>
     <row r="83" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A83" s="487" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B83" s="382"/>
       <c r="C83" s="382"/>
       <c r="D83" s="1024"/>
       <c r="E83" s="1025" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F83" s="279"/>
       <c r="G83" s="280"/>
       <c r="H83" s="921" t="s">
+        <v>529</v>
+      </c>
+      <c r="I83" s="921" t="s">
         <v>530</v>
       </c>
-      <c r="I83" s="921" t="s">
-        <v>531</v>
-      </c>
       <c r="J83" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K83" s="918"/>
       <c r="L83" s="1033"/>
@@ -23000,27 +22329,27 @@
     </row>
     <row r="84" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="501" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B84" s="374"/>
       <c r="C84" s="374"/>
       <c r="D84" s="1022" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E84" s="1026"/>
       <c r="F84" s="237"/>
       <c r="G84" s="238"/>
       <c r="H84" s="919" t="s">
+        <v>529</v>
+      </c>
+      <c r="I84" s="919" t="s">
         <v>530</v>
       </c>
-      <c r="I84" s="919" t="s">
-        <v>531</v>
-      </c>
       <c r="J84" s="920" t="s">
+        <v>473</v>
+      </c>
+      <c r="K84" s="920" t="s">
         <v>474</v>
-      </c>
-      <c r="K84" s="920" t="s">
-        <v>475</v>
       </c>
       <c r="L84" s="1027"/>
       <c r="M84" s="1028"/>
@@ -23038,27 +22367,27 @@
     </row>
     <row r="85" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A85" s="501" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B85" s="374"/>
       <c r="C85" s="374"/>
       <c r="D85" s="1022" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E85" s="1026"/>
       <c r="F85" s="237"/>
       <c r="G85" s="238"/>
       <c r="H85" s="919" t="s">
+        <v>529</v>
+      </c>
+      <c r="I85" s="919" t="s">
         <v>530</v>
       </c>
-      <c r="I85" s="919" t="s">
-        <v>531</v>
-      </c>
       <c r="J85" s="920" t="s">
+        <v>473</v>
+      </c>
+      <c r="K85" s="920" t="s">
         <v>474</v>
-      </c>
-      <c r="K85" s="920" t="s">
-        <v>475</v>
       </c>
       <c r="L85" s="1027"/>
       <c r="M85" s="1028"/>
@@ -23076,27 +22405,27 @@
     </row>
     <row r="86" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A86" s="501" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B86" s="374"/>
       <c r="C86" s="374"/>
       <c r="D86" s="1022" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E86" s="1026"/>
       <c r="F86" s="237"/>
       <c r="G86" s="238"/>
       <c r="H86" s="919" t="s">
+        <v>529</v>
+      </c>
+      <c r="I86" s="919" t="s">
         <v>530</v>
       </c>
-      <c r="I86" s="919" t="s">
-        <v>531</v>
-      </c>
       <c r="J86" s="920" t="s">
+        <v>473</v>
+      </c>
+      <c r="K86" s="920" t="s">
         <v>474</v>
-      </c>
-      <c r="K86" s="920" t="s">
-        <v>475</v>
       </c>
       <c r="L86" s="1027"/>
       <c r="M86" s="1028"/>
@@ -23274,24 +22603,24 @@
     </row>
     <row r="92" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A92" s="487" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B92" s="382"/>
       <c r="C92" s="382"/>
       <c r="D92" s="1024" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E92" s="1039"/>
       <c r="F92" s="279"/>
       <c r="G92" s="280"/>
       <c r="H92" s="921" t="s">
+        <v>529</v>
+      </c>
+      <c r="I92" s="921" t="s">
         <v>530</v>
       </c>
-      <c r="I92" s="921" t="s">
-        <v>531</v>
-      </c>
       <c r="J92" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K92" s="918"/>
       <c r="L92" s="1033"/>
@@ -23304,7 +22633,7 @@
     </row>
     <row r="93" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="487" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B93" s="382"/>
       <c r="C93" s="382"/>
@@ -23315,13 +22644,13 @@
       <c r="F93" s="279"/>
       <c r="G93" s="280"/>
       <c r="H93" s="921" t="s">
+        <v>529</v>
+      </c>
+      <c r="I93" s="921" t="s">
         <v>530</v>
       </c>
-      <c r="I93" s="921" t="s">
-        <v>531</v>
-      </c>
       <c r="J93" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K93" s="918"/>
       <c r="L93" s="1033"/>
@@ -23334,24 +22663,24 @@
     </row>
     <row r="94" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="487" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B94" s="382"/>
       <c r="C94" s="382"/>
       <c r="D94" s="1024" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E94" s="1039"/>
       <c r="F94" s="279"/>
       <c r="G94" s="280"/>
       <c r="H94" s="921" t="s">
+        <v>529</v>
+      </c>
+      <c r="I94" s="921" t="s">
         <v>530</v>
       </c>
-      <c r="I94" s="921" t="s">
-        <v>531</v>
-      </c>
       <c r="J94" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K94" s="918"/>
       <c r="L94" s="1033"/>
@@ -23364,24 +22693,24 @@
     </row>
     <row r="95" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="487" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B95" s="382"/>
       <c r="C95" s="382"/>
       <c r="D95" s="1024" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E95" s="1039"/>
       <c r="F95" s="279"/>
       <c r="G95" s="280"/>
       <c r="H95" s="507" t="s">
+        <v>529</v>
+      </c>
+      <c r="I95" s="507" t="s">
         <v>530</v>
       </c>
-      <c r="I95" s="507" t="s">
-        <v>531</v>
-      </c>
       <c r="J95" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K95" s="1040"/>
       <c r="L95" s="471"/>
@@ -23394,24 +22723,24 @@
     </row>
     <row r="96" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="487" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B96" s="382"/>
       <c r="C96" s="382"/>
       <c r="D96" s="1024" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E96" s="1039"/>
       <c r="F96" s="279"/>
       <c r="G96" s="280"/>
       <c r="H96" s="921" t="s">
+        <v>529</v>
+      </c>
+      <c r="I96" s="921" t="s">
         <v>530</v>
       </c>
-      <c r="I96" s="921" t="s">
-        <v>531</v>
-      </c>
       <c r="J96" s="729" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K96" s="729"/>
       <c r="L96" s="1033"/>
@@ -23458,24 +22787,24 @@
     </row>
     <row r="98" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="487" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B98" s="382"/>
       <c r="C98" s="382"/>
       <c r="D98" s="649" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E98" s="650"/>
       <c r="F98" s="279"/>
       <c r="G98" s="280"/>
       <c r="H98" s="921" t="s">
+        <v>529</v>
+      </c>
+      <c r="I98" s="921" t="s">
         <v>530</v>
       </c>
-      <c r="I98" s="921" t="s">
-        <v>531</v>
-      </c>
       <c r="J98" s="508" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K98" s="856"/>
       <c r="L98" s="1033"/>
@@ -23488,24 +22817,24 @@
     </row>
     <row r="99" spans="1:18" s="399" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="487" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B99" s="382"/>
       <c r="C99" s="382"/>
       <c r="D99" s="649" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E99" s="650"/>
       <c r="F99" s="279"/>
       <c r="G99" s="280"/>
       <c r="H99" s="921" t="s">
+        <v>529</v>
+      </c>
+      <c r="I99" s="921" t="s">
         <v>530</v>
       </c>
-      <c r="I99" s="921" t="s">
-        <v>531</v>
-      </c>
       <c r="J99" s="508" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K99" s="918"/>
       <c r="L99" s="1033"/>
@@ -23518,24 +22847,24 @@
     </row>
     <row r="100" spans="1:18" s="399" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="1041" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B100" s="382"/>
       <c r="C100" s="382"/>
       <c r="D100" s="1042" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E100" s="1043"/>
       <c r="F100" s="279"/>
       <c r="G100" s="280"/>
       <c r="H100" s="1044" t="s">
+        <v>529</v>
+      </c>
+      <c r="I100" s="1044" t="s">
         <v>530</v>
       </c>
-      <c r="I100" s="1044" t="s">
-        <v>531</v>
-      </c>
       <c r="J100" s="729" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K100" s="1045"/>
       <c r="L100" s="1046"/>
@@ -23805,7 +23134,7 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
@@ -23829,7 +23158,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="349" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -23844,7 +23173,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="349" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J6" s="349" t="s">
         <v>331</v>
@@ -23855,7 +23184,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="349" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J7" s="349" t="s">
         <v>333</v>
@@ -23948,28 +23277,28 @@
         <v>315</v>
       </c>
       <c r="B11" s="376" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C11" s="376" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D11" s="669" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E11" s="874"/>
       <c r="F11" s="292"/>
       <c r="G11" s="292"/>
       <c r="H11" s="376" t="s">
+        <v>589</v>
+      </c>
+      <c r="I11" s="376" t="s">
+        <v>590</v>
+      </c>
+      <c r="J11" s="647" t="s">
         <v>591</v>
       </c>
-      <c r="I11" s="376" t="s">
+      <c r="K11" s="647" t="s">
         <v>592</v>
-      </c>
-      <c r="J11" s="647" t="s">
-        <v>593</v>
-      </c>
-      <c r="K11" s="647" t="s">
-        <v>594</v>
       </c>
       <c r="L11" s="1068"/>
       <c r="M11" s="1069"/>
@@ -23992,22 +23321,22 @@
       <c r="B12" s="1057"/>
       <c r="C12" s="1057"/>
       <c r="D12" s="1058" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E12" s="1059"/>
       <c r="F12" s="292"/>
       <c r="G12" s="292"/>
       <c r="H12" s="376" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I12" s="376" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J12" s="647" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="K12" s="1071" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L12" s="1072"/>
       <c r="M12" s="1073"/>
@@ -24030,19 +23359,19 @@
       <c r="B13" s="1061"/>
       <c r="C13" s="1061"/>
       <c r="D13" s="1062" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E13" s="1063"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I13" s="1075" t="s">
+        <v>593</v>
+      </c>
+      <c r="J13" s="1040" t="s">
         <v>595</v>
-      </c>
-      <c r="J13" s="1040" t="s">
-        <v>597</v>
       </c>
       <c r="K13" s="1040"/>
       <c r="L13" s="1076"/>
@@ -24060,19 +23389,19 @@
       <c r="B14" s="1057"/>
       <c r="C14" s="1057"/>
       <c r="D14" s="1058" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E14" s="1059"/>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="376" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I14" s="376" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J14" s="1079" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K14" s="1071"/>
       <c r="L14" s="1072"/>
@@ -24090,24 +23419,24 @@
       <c r="B15" s="1057"/>
       <c r="C15" s="1057"/>
       <c r="D15" s="1064" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E15" s="1065" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F15" s="292"/>
       <c r="G15" s="292"/>
       <c r="H15" s="376" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I15" s="376" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J15" s="1071" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K15" s="1071" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L15" s="1072"/>
       <c r="M15" s="1073"/>
@@ -24125,24 +23454,24 @@
     </row>
     <row r="16" spans="1:18" s="399" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="1060" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B16" s="1061"/>
       <c r="C16" s="1061"/>
       <c r="D16" s="1061"/>
       <c r="E16" s="613" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I16" s="1075" t="s">
+        <v>593</v>
+      </c>
+      <c r="J16" s="1040" t="s">
         <v>595</v>
-      </c>
-      <c r="J16" s="1040" t="s">
-        <v>597</v>
       </c>
       <c r="K16" s="1040"/>
       <c r="L16" s="1076"/>
@@ -24155,24 +23484,24 @@
     </row>
     <row r="17" spans="1:18" s="399" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="1060" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B17" s="1061"/>
       <c r="C17" s="1061"/>
       <c r="D17" s="1061"/>
       <c r="E17" s="1066" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I17" s="1075" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J17" s="1040" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K17" s="1040"/>
       <c r="L17" s="1076"/>
@@ -24185,7 +23514,7 @@
     </row>
     <row r="18" spans="1:18" s="399" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="1060" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B18" s="1061"/>
       <c r="C18" s="1061"/>
@@ -24196,13 +23525,13 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I18" s="1075" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J18" s="1040" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K18" s="1040"/>
       <c r="L18" s="1076"/>
@@ -24220,21 +23549,21 @@
       <c r="B19" s="1061"/>
       <c r="C19" s="1061"/>
       <c r="D19" s="1066" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E19" s="613" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I19" s="1075" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J19" s="1040" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K19" s="1040"/>
       <c r="L19" s="1076"/>
@@ -24252,21 +23581,21 @@
       <c r="B20" s="1061"/>
       <c r="C20" s="1061"/>
       <c r="D20" s="393" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E20" s="613" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F20" s="292"/>
       <c r="G20" s="292"/>
       <c r="H20" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I20" s="1075" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J20" s="1040" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K20" s="1040"/>
       <c r="L20" s="1076"/>
@@ -24284,19 +23613,19 @@
       <c r="B21" s="1061"/>
       <c r="C21" s="1061"/>
       <c r="D21" s="1146" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E21" s="1147"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I21" s="1075" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J21" s="1040" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K21" s="1040"/>
       <c r="L21" s="1076"/>
@@ -24316,22 +23645,22 @@
         <v>323</v>
       </c>
       <c r="D22" s="1058" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E22" s="1059"/>
       <c r="F22" s="292"/>
       <c r="G22" s="292"/>
       <c r="H22" s="376" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I22" s="376" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J22" s="1071" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K22" s="1071" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L22" s="1072"/>
       <c r="M22" s="1073"/>
@@ -24354,19 +23683,19 @@
       <c r="B23" s="1067"/>
       <c r="C23" s="1067"/>
       <c r="D23" s="1062" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E23" s="1063"/>
       <c r="F23" s="292"/>
       <c r="G23" s="292"/>
       <c r="H23" s="1075" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I23" s="1075" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J23" s="1040" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K23" s="1040"/>
       <c r="L23" s="1076"/>
